--- a/Data_frame/balancos_definitivos/RPAD3.xlsx
+++ b/Data_frame/balancos_definitivos/RPAD3.xlsx
@@ -441,302 +441,302 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>31/12/2008</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31/03/2009</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>30/06/2009</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>30/09/2009</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>31/12/2009</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>31/03/2010</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>30/06/2010</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>30/09/2010</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>31/12/2010</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>31/03/2011</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>30/06/2011</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>30/09/2011</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>31/12/2011</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>31/03/2012</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>30/06/2012</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>30/09/2012</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>31/12/2012</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>31/03/2013</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>30/06/2013</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>30/09/2013</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>31/12/2013</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>31/03/2014</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>30/06/2014</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>30/09/2014</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>31/12/2014</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>31/03/2015</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>30/06/2015</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>30/09/2015</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>31/12/2015</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>31/03/2016</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>30/06/2016</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>30/09/2016</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>31/12/2016</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>31/03/2017</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>30/06/2017</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>30/09/2017</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2017</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>31/03/2018</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>30/06/2018</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>30/09/2018</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>31/12/2018</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>31/03/2019</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>30/06/2019</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>30/09/2019</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>31/12/2019</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>31/03/2020</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>30/06/2020</t>
         </is>
       </c>
-      <c r="AW1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>30/09/2020</t>
         </is>
       </c>
-      <c r="AX1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>31/12/2020</t>
         </is>
       </c>
-      <c r="AY1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>31/03/2021</t>
         </is>
       </c>
-      <c r="AZ1" s="1" t="inlineStr">
+      <c r="AX1" s="1" t="inlineStr">
         <is>
           <t>30/06/2021</t>
         </is>
       </c>
-      <c r="BA1" s="1" t="inlineStr">
+      <c r="AY1" s="1" t="inlineStr">
         <is>
           <t>30/09/2021</t>
         </is>
       </c>
-      <c r="BB1" s="1" t="inlineStr">
+      <c r="AZ1" s="1" t="inlineStr">
         <is>
           <t>31/12/2021</t>
         </is>
       </c>
-      <c r="BC1" s="1" t="inlineStr">
+      <c r="BA1" s="1" t="inlineStr">
         <is>
           <t>31/03/2022</t>
         </is>
       </c>
-      <c r="BD1" s="1" t="inlineStr">
+      <c r="BB1" s="1" t="inlineStr">
         <is>
           <t>30/06/2022</t>
         </is>
       </c>
-      <c r="BE1" s="1" t="inlineStr">
+      <c r="BC1" s="1" t="inlineStr">
         <is>
           <t>30/09/2022</t>
         </is>
       </c>
-      <c r="BF1" s="1" t="inlineStr">
+      <c r="BD1" s="1" t="inlineStr">
         <is>
           <t>31/12/2022</t>
         </is>
       </c>
-      <c r="BG1" s="1" t="inlineStr">
+      <c r="BE1" s="1" t="inlineStr">
         <is>
           <t>31/03/2023</t>
         </is>
       </c>
-      <c r="BH1" s="1" t="inlineStr">
+      <c r="BF1" s="1" t="inlineStr">
         <is>
           <t>30/06/2023</t>
         </is>
       </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>30/09/2023</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>31/12/2023</t>
+        </is>
+      </c>
       <c r="BI1" s="1" t="inlineStr">
         <is>
-          <t>30/09/2023</t>
+          <t>31/03/2024</t>
         </is>
       </c>
     </row>
@@ -747,184 +747,184 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2939095.04</v>
+        <v>522388</v>
       </c>
       <c r="C2" t="n">
-        <v>513432</v>
+        <v>526777.9840000001</v>
       </c>
       <c r="D2" t="n">
-        <v>522388</v>
+        <v>3470307.072</v>
       </c>
       <c r="E2" t="n">
-        <v>526777.9840000001</v>
+        <v>3188077.056</v>
       </c>
       <c r="F2" t="n">
-        <v>3470307.072</v>
+        <v>3188069.12</v>
       </c>
       <c r="G2" t="n">
-        <v>3188077.056</v>
+        <v>2912958.976</v>
       </c>
       <c r="H2" t="n">
-        <v>3188069.12</v>
+        <v>2971937.024</v>
       </c>
       <c r="I2" t="n">
-        <v>2912958.976</v>
+        <v>2763374.08</v>
       </c>
       <c r="J2" t="n">
-        <v>2971937.024</v>
+        <v>3021806.08</v>
       </c>
       <c r="K2" t="n">
-        <v>2763374.08</v>
+        <v>3291697.92</v>
       </c>
       <c r="L2" t="n">
-        <v>3021806.08</v>
+        <v>3225612.032</v>
       </c>
       <c r="M2" t="n">
-        <v>3291697.92</v>
+        <v>3240893.952</v>
       </c>
       <c r="N2" t="n">
-        <v>3225612.032</v>
+        <v>3283696.128</v>
       </c>
       <c r="O2" t="n">
-        <v>3240893.952</v>
+        <v>4051496.96</v>
       </c>
       <c r="P2" t="n">
-        <v>3283696.128</v>
+        <v>3343524.096</v>
       </c>
       <c r="Q2" t="n">
-        <v>4051496.96</v>
+        <v>713284.992</v>
       </c>
       <c r="R2" t="n">
-        <v>3343524.096</v>
+        <v>724070.0159999999</v>
       </c>
       <c r="S2" t="n">
-        <v>713284.992</v>
+        <v>731259.008</v>
       </c>
       <c r="T2" t="n">
-        <v>724070.0159999999</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>731259.008</v>
+        <v>751635.008</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>758632</v>
       </c>
       <c r="W2" t="n">
-        <v>751635.008</v>
+        <v>773496</v>
       </c>
       <c r="X2" t="n">
-        <v>758632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>773496</v>
+        <v>804062.976</v>
       </c>
       <c r="Z2" t="n">
-        <v>0</v>
+        <v>811016</v>
       </c>
       <c r="AA2" t="n">
-        <v>804062.976</v>
+        <v>840336</v>
       </c>
       <c r="AB2" t="n">
-        <v>811016</v>
+        <v>857499.008</v>
       </c>
       <c r="AC2" t="n">
-        <v>840336</v>
+        <v>861844.992</v>
       </c>
       <c r="AD2" t="n">
-        <v>857499.008</v>
+        <v>864228.992</v>
       </c>
       <c r="AE2" t="n">
-        <v>861844.992</v>
+        <v>881172.992</v>
       </c>
       <c r="AF2" t="n">
-        <v>864228.992</v>
+        <v>889310.0159999999</v>
       </c>
       <c r="AG2" t="n">
-        <v>881172.992</v>
+        <v>900230.0159999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>889310.0159999999</v>
+        <v>912131.008</v>
       </c>
       <c r="AI2" t="n">
-        <v>900230.0159999999</v>
+        <v>922072</v>
       </c>
       <c r="AJ2" t="n">
-        <v>912131.008</v>
+        <v>925348.992</v>
       </c>
       <c r="AK2" t="n">
-        <v>922072</v>
+        <v>932713.024</v>
       </c>
       <c r="AL2" t="n">
-        <v>925348.992</v>
+        <v>946548.992</v>
       </c>
       <c r="AM2" t="n">
-        <v>932713.024</v>
+        <v>957208</v>
       </c>
       <c r="AN2" t="n">
-        <v>946548.992</v>
+        <v>967257.024</v>
       </c>
       <c r="AO2" t="n">
-        <v>957208</v>
+        <v>973382.0159999999</v>
       </c>
       <c r="AP2" t="n">
-        <v>967257.024</v>
+        <v>978806.976</v>
       </c>
       <c r="AQ2" t="n">
-        <v>973382.0159999999</v>
+        <v>992998.976</v>
       </c>
       <c r="AR2" t="n">
-        <v>978806.976</v>
+        <v>1003100.032</v>
       </c>
       <c r="AS2" t="n">
-        <v>992998.976</v>
+        <v>1026339.968</v>
       </c>
       <c r="AT2" t="n">
-        <v>1003100.032</v>
+        <v>1038012.992</v>
       </c>
       <c r="AU2" t="n">
-        <v>1026339.968</v>
+        <v>1048844.032</v>
       </c>
       <c r="AV2" t="n">
-        <v>1038012.992</v>
+        <v>1037843.008</v>
       </c>
       <c r="AW2" t="n">
-        <v>1048844.032</v>
+        <v>1038036.992</v>
       </c>
       <c r="AX2" t="n">
-        <v>1037843.008</v>
+        <v>1032347.008</v>
       </c>
       <c r="AY2" t="n">
-        <v>1038036.992</v>
+        <v>1044478.016</v>
       </c>
       <c r="AZ2" t="n">
-        <v>1032347.008</v>
+        <v>1048686.976</v>
       </c>
       <c r="BA2" t="n">
-        <v>1044478.016</v>
+        <v>1043270.016</v>
       </c>
       <c r="BB2" t="n">
-        <v>1048686.976</v>
+        <v>1060235.008</v>
       </c>
       <c r="BC2" t="n">
-        <v>1043270.016</v>
+        <v>1076696.96</v>
       </c>
       <c r="BD2" t="n">
-        <v>1060235.008</v>
+        <v>1078619.008</v>
       </c>
       <c r="BE2" t="n">
-        <v>1076696.96</v>
+        <v>1083076.992</v>
       </c>
       <c r="BF2" t="n">
-        <v>1078619.008</v>
+        <v>1090467.968</v>
       </c>
       <c r="BG2" t="n">
-        <v>1083076.992</v>
+        <v>1105720.064</v>
       </c>
       <c r="BH2" t="n">
-        <v>1090467.968</v>
+        <v>1094722.944</v>
       </c>
       <c r="BI2" t="n">
-        <v>1105720.064</v>
+        <v>1091335.04</v>
       </c>
     </row>
     <row r="3">
@@ -934,184 +934,184 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1562080</v>
+        <v>13875</v>
       </c>
       <c r="C3" t="n">
-        <v>10675</v>
+        <v>10288</v>
       </c>
       <c r="D3" t="n">
-        <v>13875</v>
+        <v>1608957.056</v>
       </c>
       <c r="E3" t="n">
-        <v>10288</v>
+        <v>1897460.992</v>
       </c>
       <c r="F3" t="n">
-        <v>1608957.056</v>
+        <v>2093782.016</v>
       </c>
       <c r="G3" t="n">
-        <v>1897460.992</v>
+        <v>1824577.024</v>
       </c>
       <c r="H3" t="n">
-        <v>2093782.016</v>
+        <v>1700249.984</v>
       </c>
       <c r="I3" t="n">
-        <v>1824577.024</v>
+        <v>1609181.952</v>
       </c>
       <c r="J3" t="n">
-        <v>1700249.984</v>
+        <v>1455995.008</v>
       </c>
       <c r="K3" t="n">
-        <v>1609181.952</v>
+        <v>1919972.992</v>
       </c>
       <c r="L3" t="n">
-        <v>1455995.008</v>
+        <v>1454882.048</v>
       </c>
       <c r="M3" t="n">
-        <v>1919972.992</v>
+        <v>1429049.984</v>
       </c>
       <c r="N3" t="n">
-        <v>1454882.048</v>
+        <v>1637177.984</v>
       </c>
       <c r="O3" t="n">
-        <v>1429049.984</v>
+        <v>1849601.024</v>
       </c>
       <c r="P3" t="n">
-        <v>1637177.984</v>
+        <v>1623771.008</v>
       </c>
       <c r="Q3" t="n">
-        <v>1849601.024</v>
+        <v>1338</v>
       </c>
       <c r="R3" t="n">
-        <v>1623771.008</v>
+        <v>5409</v>
       </c>
       <c r="S3" t="n">
-        <v>1338</v>
+        <v>6491</v>
       </c>
       <c r="T3" t="n">
-        <v>5409</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>6491</v>
+        <v>6073</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>5678</v>
       </c>
       <c r="W3" t="n">
-        <v>6073</v>
+        <v>6413</v>
       </c>
       <c r="X3" t="n">
-        <v>5678</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>6413</v>
+        <v>6602</v>
       </c>
       <c r="Z3" t="n">
-        <v>0</v>
+        <v>11045</v>
       </c>
       <c r="AA3" t="n">
-        <v>6602</v>
+        <v>10694</v>
       </c>
       <c r="AB3" t="n">
-        <v>11045</v>
+        <v>9396</v>
       </c>
       <c r="AC3" t="n">
-        <v>10694</v>
+        <v>5055</v>
       </c>
       <c r="AD3" t="n">
-        <v>9396</v>
+        <v>4885</v>
       </c>
       <c r="AE3" t="n">
-        <v>5055</v>
+        <v>5009</v>
       </c>
       <c r="AF3" t="n">
-        <v>4885</v>
+        <v>6243</v>
       </c>
       <c r="AG3" t="n">
-        <v>5009</v>
+        <v>10653</v>
       </c>
       <c r="AH3" t="n">
-        <v>6243</v>
+        <v>10847</v>
       </c>
       <c r="AI3" t="n">
-        <v>10653</v>
+        <v>10080</v>
       </c>
       <c r="AJ3" t="n">
-        <v>10847</v>
+        <v>22302</v>
       </c>
       <c r="AK3" t="n">
-        <v>10080</v>
+        <v>17586</v>
       </c>
       <c r="AL3" t="n">
-        <v>22302</v>
+        <v>16777</v>
       </c>
       <c r="AM3" t="n">
-        <v>17586</v>
+        <v>16392</v>
       </c>
       <c r="AN3" t="n">
-        <v>16777</v>
+        <v>14260</v>
       </c>
       <c r="AO3" t="n">
-        <v>16392</v>
+        <v>9207</v>
       </c>
       <c r="AP3" t="n">
-        <v>14260</v>
+        <v>7928</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9207</v>
+        <v>7390</v>
       </c>
       <c r="AR3" t="n">
-        <v>7928</v>
+        <v>6793</v>
       </c>
       <c r="AS3" t="n">
-        <v>7390</v>
+        <v>11079</v>
       </c>
       <c r="AT3" t="n">
-        <v>6793</v>
+        <v>9466</v>
       </c>
       <c r="AU3" t="n">
-        <v>11079</v>
+        <v>8485</v>
       </c>
       <c r="AV3" t="n">
-        <v>9466</v>
+        <v>22235</v>
       </c>
       <c r="AW3" t="n">
-        <v>8485</v>
+        <v>15139</v>
       </c>
       <c r="AX3" t="n">
-        <v>22235</v>
+        <v>13950</v>
       </c>
       <c r="AY3" t="n">
-        <v>15139</v>
+        <v>13364</v>
       </c>
       <c r="AZ3" t="n">
-        <v>13950</v>
+        <v>70356</v>
       </c>
       <c r="BA3" t="n">
-        <v>13364</v>
+        <v>64622</v>
       </c>
       <c r="BB3" t="n">
-        <v>70356</v>
+        <v>65706</v>
       </c>
       <c r="BC3" t="n">
-        <v>64622</v>
+        <v>66933</v>
       </c>
       <c r="BD3" t="n">
-        <v>65706</v>
+        <v>69620</v>
       </c>
       <c r="BE3" t="n">
-        <v>66933</v>
+        <v>61152</v>
       </c>
       <c r="BF3" t="n">
-        <v>69620</v>
+        <v>61500</v>
       </c>
       <c r="BG3" t="n">
-        <v>61152</v>
+        <v>62592</v>
       </c>
       <c r="BH3" t="n">
-        <v>61500</v>
+        <v>62484</v>
       </c>
       <c r="BI3" t="n">
-        <v>62592</v>
+        <v>55100</v>
       </c>
     </row>
     <row r="4">
@@ -1121,184 +1121,184 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>873356.032</v>
+        <v>9526</v>
       </c>
       <c r="C4" t="n">
-        <v>10189</v>
+        <v>9962</v>
       </c>
       <c r="D4" t="n">
-        <v>9526</v>
+        <v>836822.0159999999</v>
       </c>
       <c r="E4" t="n">
-        <v>9962</v>
+        <v>2450</v>
       </c>
       <c r="F4" t="n">
-        <v>836822.0159999999</v>
+        <v>2499</v>
       </c>
       <c r="G4" t="n">
-        <v>2450</v>
+        <v>2756</v>
       </c>
       <c r="H4" t="n">
-        <v>2499</v>
+        <v>1838</v>
       </c>
       <c r="I4" t="n">
-        <v>2756</v>
+        <v>528</v>
       </c>
       <c r="J4" t="n">
-        <v>1838</v>
+        <v>1008</v>
       </c>
       <c r="K4" t="n">
-        <v>528</v>
+        <v>4035</v>
       </c>
       <c r="L4" t="n">
-        <v>1008</v>
+        <v>2417</v>
       </c>
       <c r="M4" t="n">
-        <v>4035</v>
+        <v>1779</v>
       </c>
       <c r="N4" t="n">
-        <v>2417</v>
+        <v>1544</v>
       </c>
       <c r="O4" t="n">
-        <v>1779</v>
+        <v>5196</v>
       </c>
       <c r="P4" t="n">
-        <v>1544</v>
+        <v>2181</v>
       </c>
       <c r="Q4" t="n">
-        <v>5196</v>
+        <v>119</v>
       </c>
       <c r="R4" t="n">
-        <v>2181</v>
+        <v>169</v>
       </c>
       <c r="S4" t="n">
-        <v>119</v>
+        <v>30</v>
       </c>
       <c r="T4" t="n">
-        <v>169</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="W4" t="n">
-        <v>122</v>
+        <v>33</v>
       </c>
       <c r="X4" t="n">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>39</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>152</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM4" t="n">
         <v>15</v>
       </c>
-      <c r="AB4" t="n">
-        <v>31</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>22</v>
-      </c>
-      <c r="AD4" t="n">
+      <c r="AN4" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>58</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>133</v>
+      </c>
+      <c r="AS4" t="n">
         <v>39</v>
       </c>
-      <c r="AE4" t="n">
-        <v>152</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>9</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>4</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>13</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AP4" t="n">
+      <c r="AT4" t="n">
+        <v>450</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>367</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>467</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>427</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>468</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>457</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>457</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>181</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>196</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>421</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>64</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>525</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>340</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>307</v>
+      </c>
+      <c r="BH4" t="n">
         <v>23</v>
       </c>
-      <c r="AQ4" t="n">
-        <v>7</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>58</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>51</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>133</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>39</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>450</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>367</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>467</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>427</v>
-      </c>
-      <c r="AZ4" t="n">
-        <v>468</v>
-      </c>
-      <c r="BA4" t="n">
-        <v>457</v>
-      </c>
-      <c r="BB4" t="n">
-        <v>457</v>
-      </c>
-      <c r="BC4" t="n">
-        <v>181</v>
-      </c>
-      <c r="BD4" t="n">
-        <v>196</v>
-      </c>
-      <c r="BE4" t="n">
-        <v>421</v>
-      </c>
-      <c r="BF4" t="n">
-        <v>64</v>
-      </c>
-      <c r="BG4" t="n">
-        <v>525</v>
-      </c>
-      <c r="BH4" t="n">
-        <v>340</v>
-      </c>
       <c r="BI4" t="n">
-        <v>307</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
@@ -1326,166 +1326,166 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1675794.944</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1582855.936</v>
       </c>
       <c r="J5" t="n">
-        <v>1675794.944</v>
+        <v>1423544.064</v>
       </c>
       <c r="K5" t="n">
-        <v>1582855.936</v>
+        <v>1896264.96</v>
       </c>
       <c r="L5" t="n">
-        <v>1423544.064</v>
+        <v>1433358.976</v>
       </c>
       <c r="M5" t="n">
-        <v>1896264.96</v>
+        <v>1406439.936</v>
       </c>
       <c r="N5" t="n">
-        <v>1433358.976</v>
+        <v>1616914.048</v>
       </c>
       <c r="O5" t="n">
-        <v>1406439.936</v>
+        <v>1830928</v>
       </c>
       <c r="P5" t="n">
-        <v>1616914.048</v>
+        <v>1606488.064</v>
       </c>
       <c r="Q5" t="n">
-        <v>1830928</v>
+        <v>819</v>
       </c>
       <c r="R5" t="n">
-        <v>1606488.064</v>
+        <v>3206</v>
       </c>
       <c r="S5" t="n">
-        <v>819</v>
+        <v>2474</v>
       </c>
       <c r="T5" t="n">
-        <v>3206</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>2474</v>
+        <v>3039</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>2235</v>
       </c>
       <c r="W5" t="n">
-        <v>3039</v>
+        <v>3097</v>
       </c>
       <c r="X5" t="n">
-        <v>2235</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>3097</v>
+        <v>3898</v>
       </c>
       <c r="Z5" t="n">
-        <v>0</v>
+        <v>7376</v>
       </c>
       <c r="AA5" t="n">
-        <v>3898</v>
+        <v>7159</v>
       </c>
       <c r="AB5" t="n">
-        <v>7376</v>
+        <v>5734</v>
       </c>
       <c r="AC5" t="n">
-        <v>7159</v>
+        <v>2142</v>
       </c>
       <c r="AD5" t="n">
-        <v>5734</v>
+        <v>1387</v>
       </c>
       <c r="AE5" t="n">
-        <v>2142</v>
+        <v>1726</v>
       </c>
       <c r="AF5" t="n">
-        <v>1387</v>
+        <v>2833</v>
       </c>
       <c r="AG5" t="n">
-        <v>1726</v>
+        <v>8182</v>
       </c>
       <c r="AH5" t="n">
-        <v>2833</v>
+        <v>7362</v>
       </c>
       <c r="AI5" t="n">
-        <v>8182</v>
+        <v>6785</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7362</v>
+        <v>19504</v>
       </c>
       <c r="AK5" t="n">
-        <v>6785</v>
+        <v>15351</v>
       </c>
       <c r="AL5" t="n">
-        <v>19504</v>
+        <v>14560</v>
       </c>
       <c r="AM5" t="n">
-        <v>15351</v>
+        <v>14280</v>
       </c>
       <c r="AN5" t="n">
-        <v>14560</v>
+        <v>11999</v>
       </c>
       <c r="AO5" t="n">
-        <v>14280</v>
+        <v>7337</v>
       </c>
       <c r="AP5" t="n">
-        <v>11999</v>
+        <v>6215</v>
       </c>
       <c r="AQ5" t="n">
-        <v>7337</v>
+        <v>5777</v>
       </c>
       <c r="AR5" t="n">
-        <v>6215</v>
+        <v>4485</v>
       </c>
       <c r="AS5" t="n">
-        <v>5777</v>
+        <v>9527</v>
       </c>
       <c r="AT5" t="n">
-        <v>4485</v>
+        <v>7810</v>
       </c>
       <c r="AU5" t="n">
-        <v>9527</v>
+        <v>7026</v>
       </c>
       <c r="AV5" t="n">
-        <v>7810</v>
+        <v>20673</v>
       </c>
       <c r="AW5" t="n">
-        <v>7026</v>
+        <v>13755</v>
       </c>
       <c r="AX5" t="n">
-        <v>20673</v>
+        <v>12556</v>
       </c>
       <c r="AY5" t="n">
-        <v>13755</v>
+        <v>12105</v>
       </c>
       <c r="AZ5" t="n">
-        <v>12556</v>
+        <v>68928</v>
       </c>
       <c r="BA5" t="n">
-        <v>12105</v>
+        <v>63884</v>
       </c>
       <c r="BB5" t="n">
-        <v>68928</v>
+        <v>64173</v>
       </c>
       <c r="BC5" t="n">
-        <v>63884</v>
+        <v>65052</v>
       </c>
       <c r="BD5" t="n">
-        <v>64173</v>
+        <v>66131</v>
       </c>
       <c r="BE5" t="n">
-        <v>65052</v>
+        <v>60278</v>
       </c>
       <c r="BF5" t="n">
-        <v>66131</v>
+        <v>60773</v>
       </c>
       <c r="BG5" t="n">
-        <v>60278</v>
+        <v>61288</v>
       </c>
       <c r="BH5" t="n">
-        <v>60773</v>
+        <v>60509</v>
       </c>
       <c r="BI5" t="n">
-        <v>61288</v>
+        <v>53411</v>
       </c>
     </row>
     <row r="6">
@@ -1495,40 +1495,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>688723.968</v>
+        <v>4349</v>
       </c>
       <c r="C6" t="n">
-        <v>486</v>
+        <v>326</v>
       </c>
       <c r="D6" t="n">
-        <v>4349</v>
+        <v>772134.976</v>
       </c>
       <c r="E6" t="n">
-        <v>326</v>
+        <v>1843675.008</v>
       </c>
       <c r="F6" t="n">
-        <v>772134.976</v>
+        <v>2011064.96</v>
       </c>
       <c r="G6" t="n">
-        <v>1843675.008</v>
+        <v>1751602.048</v>
       </c>
       <c r="H6" t="n">
-        <v>2011064.96</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1751602.048</v>
+        <v>8966</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>8304</v>
       </c>
       <c r="K6" t="n">
-        <v>8966</v>
+        <v>7102</v>
       </c>
       <c r="L6" t="n">
-        <v>8304</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>7102</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -2077,13 +2077,13 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>511</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2439,175 +2439,175 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>51336</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>80218</v>
       </c>
       <c r="G11" t="n">
-        <v>51336</v>
+        <v>70219</v>
       </c>
       <c r="H11" t="n">
-        <v>80218</v>
+        <v>22617</v>
       </c>
       <c r="I11" t="n">
-        <v>70219</v>
+        <v>16321</v>
       </c>
       <c r="J11" t="n">
-        <v>22617</v>
+        <v>23139</v>
       </c>
       <c r="K11" t="n">
-        <v>16321</v>
+        <v>12571</v>
       </c>
       <c r="L11" t="n">
-        <v>23139</v>
+        <v>19106</v>
       </c>
       <c r="M11" t="n">
-        <v>12571</v>
+        <v>20831</v>
       </c>
       <c r="N11" t="n">
-        <v>19106</v>
+        <v>18720</v>
       </c>
       <c r="O11" t="n">
-        <v>20831</v>
+        <v>13477</v>
       </c>
       <c r="P11" t="n">
-        <v>18720</v>
+        <v>15102</v>
       </c>
       <c r="Q11" t="n">
-        <v>13477</v>
+        <v>400</v>
       </c>
       <c r="R11" t="n">
-        <v>15102</v>
+        <v>2034</v>
       </c>
       <c r="S11" t="n">
-        <v>400</v>
+        <v>3987</v>
       </c>
       <c r="T11" t="n">
-        <v>2034</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>3987</v>
+        <v>2912</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>3398</v>
       </c>
       <c r="W11" t="n">
-        <v>2912</v>
+        <v>3283</v>
       </c>
       <c r="X11" t="n">
-        <v>3398</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>3283</v>
+        <v>2689</v>
       </c>
       <c r="Z11" t="n">
-        <v>0</v>
+        <v>3638</v>
       </c>
       <c r="AA11" t="n">
-        <v>2689</v>
+        <v>3513</v>
       </c>
       <c r="AB11" t="n">
-        <v>3638</v>
+        <v>3623</v>
       </c>
       <c r="AC11" t="n">
-        <v>3513</v>
+        <v>2761</v>
       </c>
       <c r="AD11" t="n">
-        <v>3623</v>
+        <v>3489</v>
       </c>
       <c r="AE11" t="n">
-        <v>2761</v>
+        <v>3276</v>
       </c>
       <c r="AF11" t="n">
-        <v>3489</v>
+        <v>3404</v>
       </c>
       <c r="AG11" t="n">
-        <v>3276</v>
+        <v>2467</v>
       </c>
       <c r="AH11" t="n">
-        <v>3404</v>
+        <v>3468</v>
       </c>
       <c r="AI11" t="n">
-        <v>2467</v>
+        <v>3288</v>
       </c>
       <c r="AJ11" t="n">
-        <v>3468</v>
+        <v>2791</v>
       </c>
       <c r="AK11" t="n">
-        <v>3288</v>
+        <v>2221</v>
       </c>
       <c r="AL11" t="n">
-        <v>2791</v>
+        <v>2204</v>
       </c>
       <c r="AM11" t="n">
-        <v>2221</v>
+        <v>2097</v>
       </c>
       <c r="AN11" t="n">
-        <v>2204</v>
+        <v>2238</v>
       </c>
       <c r="AO11" t="n">
-        <v>2097</v>
+        <v>1863</v>
       </c>
       <c r="AP11" t="n">
-        <v>2238</v>
+        <v>1655</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1863</v>
+        <v>1562</v>
       </c>
       <c r="AR11" t="n">
+        <v>2175</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>1513</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>1206</v>
+      </c>
+      <c r="AU11" t="n">
+        <v>1092</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>1095</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>957</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>926</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>802</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>971</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>557</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1337</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>1460</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>3425</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>349</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>387</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>997</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>1952</v>
+      </c>
+      <c r="BI11" t="n">
         <v>1655</v>
-      </c>
-      <c r="AS11" t="n">
-        <v>1562</v>
-      </c>
-      <c r="AT11" t="n">
-        <v>2175</v>
-      </c>
-      <c r="AU11" t="n">
-        <v>1513</v>
-      </c>
-      <c r="AV11" t="n">
-        <v>1206</v>
-      </c>
-      <c r="AW11" t="n">
-        <v>1092</v>
-      </c>
-      <c r="AX11" t="n">
-        <v>1095</v>
-      </c>
-      <c r="AY11" t="n">
-        <v>957</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>926</v>
-      </c>
-      <c r="BA11" t="n">
-        <v>802</v>
-      </c>
-      <c r="BB11" t="n">
-        <v>971</v>
-      </c>
-      <c r="BC11" t="n">
-        <v>557</v>
-      </c>
-      <c r="BD11" t="n">
-        <v>1337</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>1460</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>3425</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>349</v>
-      </c>
-      <c r="BH11" t="n">
-        <v>387</v>
-      </c>
-      <c r="BI11" t="n">
-        <v>997</v>
       </c>
     </row>
     <row r="12">
@@ -2617,184 +2617,184 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1137981.952</v>
+        <v>710</v>
       </c>
       <c r="C12" t="n">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D12" t="n">
-        <v>710</v>
+        <v>1700582.016</v>
       </c>
       <c r="E12" t="n">
-        <v>700</v>
+        <v>1146695.936</v>
       </c>
       <c r="F12" t="n">
-        <v>1700582.016</v>
+        <v>946209.024</v>
       </c>
       <c r="G12" t="n">
-        <v>1146695.936</v>
+        <v>938556.992</v>
       </c>
       <c r="H12" t="n">
-        <v>946209.024</v>
+        <v>1101394.048</v>
       </c>
       <c r="I12" t="n">
-        <v>938556.992</v>
+        <v>981027.008</v>
       </c>
       <c r="J12" t="n">
-        <v>1101394.048</v>
+        <v>1389248</v>
       </c>
       <c r="K12" t="n">
-        <v>981027.008</v>
+        <v>1184627.968</v>
       </c>
       <c r="L12" t="n">
-        <v>1389248</v>
+        <v>1577901.056</v>
       </c>
       <c r="M12" t="n">
-        <v>1184627.968</v>
+        <v>1616231.936</v>
       </c>
       <c r="N12" t="n">
-        <v>1577901.056</v>
+        <v>1435015.936</v>
       </c>
       <c r="O12" t="n">
-        <v>1616231.936</v>
+        <v>1969344</v>
       </c>
       <c r="P12" t="n">
-        <v>1435015.936</v>
+        <v>1467591.936</v>
       </c>
       <c r="Q12" t="n">
-        <v>1969344</v>
+        <v>1985</v>
       </c>
       <c r="R12" t="n">
-        <v>1467591.936</v>
+        <v>1944</v>
       </c>
       <c r="S12" t="n">
-        <v>1985</v>
+        <v>1905</v>
       </c>
       <c r="T12" t="n">
-        <v>1944</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1905</v>
+        <v>1925</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>1941</v>
       </c>
       <c r="W12" t="n">
-        <v>1925</v>
+        <v>1959</v>
       </c>
       <c r="X12" t="n">
-        <v>1941</v>
+        <v>0</v>
       </c>
       <c r="Y12" t="n">
-        <v>1959</v>
+        <v>2039</v>
       </c>
       <c r="Z12" t="n">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="AA12" t="n">
-        <v>2039</v>
+        <v>2083</v>
       </c>
       <c r="AB12" t="n">
-        <v>2060</v>
+        <v>2105</v>
       </c>
       <c r="AC12" t="n">
-        <v>2083</v>
+        <v>2176</v>
       </c>
       <c r="AD12" t="n">
-        <v>2105</v>
+        <v>2201</v>
       </c>
       <c r="AE12" t="n">
-        <v>2176</v>
+        <v>2225</v>
       </c>
       <c r="AF12" t="n">
-        <v>2201</v>
+        <v>2246</v>
       </c>
       <c r="AG12" t="n">
-        <v>2225</v>
+        <v>2325</v>
       </c>
       <c r="AH12" t="n">
-        <v>2246</v>
+        <v>2343</v>
       </c>
       <c r="AI12" t="n">
-        <v>2325</v>
+        <v>2359</v>
       </c>
       <c r="AJ12" t="n">
-        <v>2343</v>
+        <v>2370</v>
       </c>
       <c r="AK12" t="n">
-        <v>2359</v>
+        <v>2381</v>
       </c>
       <c r="AL12" t="n">
-        <v>2370</v>
+        <v>2392</v>
       </c>
       <c r="AM12" t="n">
-        <v>2381</v>
+        <v>2403</v>
       </c>
       <c r="AN12" t="n">
-        <v>2392</v>
+        <v>2413</v>
       </c>
       <c r="AO12" t="n">
-        <v>2403</v>
+        <v>2424</v>
       </c>
       <c r="AP12" t="n">
-        <v>2413</v>
+        <v>2434</v>
       </c>
       <c r="AQ12" t="n">
-        <v>2424</v>
+        <v>2445</v>
       </c>
       <c r="AR12" t="n">
-        <v>2434</v>
+        <v>2200</v>
       </c>
       <c r="AS12" t="n">
-        <v>2445</v>
+        <v>500</v>
       </c>
       <c r="AT12" t="n">
-        <v>2200</v>
+        <v>505</v>
       </c>
       <c r="AU12" t="n">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="AV12" t="n">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="AW12" t="n">
-        <v>505</v>
+        <v>524</v>
       </c>
       <c r="AX12" t="n">
         <v>524</v>
       </c>
       <c r="AY12" t="n">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="AZ12" t="n">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="BA12" t="n">
-        <v>527</v>
+        <v>534</v>
       </c>
       <c r="BB12" t="n">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="BC12" t="n">
-        <v>534</v>
+        <v>546</v>
       </c>
       <c r="BD12" t="n">
-        <v>540</v>
+        <v>551</v>
       </c>
       <c r="BE12" t="n">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="BF12" t="n">
-        <v>551</v>
+        <v>481</v>
       </c>
       <c r="BG12" t="n">
-        <v>556</v>
+        <v>170</v>
       </c>
       <c r="BH12" t="n">
-        <v>481</v>
+        <v>174</v>
       </c>
       <c r="BI12" t="n">
-        <v>170</v>
+        <v>175</v>
       </c>
     </row>
     <row r="13">
@@ -2822,37 +2822,37 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1058131.968</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>925134.0159999999</v>
       </c>
       <c r="J13" t="n">
-        <v>1058131.968</v>
+        <v>1333970.048</v>
       </c>
       <c r="K13" t="n">
-        <v>925134.0159999999</v>
+        <v>1121842.048</v>
       </c>
       <c r="L13" t="n">
-        <v>1333970.048</v>
+        <v>1518375.04</v>
       </c>
       <c r="M13" t="n">
-        <v>1121842.048</v>
+        <v>1563003.008</v>
       </c>
       <c r="N13" t="n">
-        <v>1518375.04</v>
+        <v>1379719.936</v>
       </c>
       <c r="O13" t="n">
-        <v>1563003.008</v>
+        <v>1907816.96</v>
       </c>
       <c r="P13" t="n">
-        <v>1379719.936</v>
+        <v>1395603.968</v>
       </c>
       <c r="Q13" t="n">
-        <v>1907816.96</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>1395603.968</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -3178,28 +3178,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1137981.952</v>
+        <v>710</v>
       </c>
       <c r="C15" t="n">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="D15" t="n">
-        <v>710</v>
+        <v>1700582.016</v>
       </c>
       <c r="E15" t="n">
-        <v>700</v>
+        <v>1073260.032</v>
       </c>
       <c r="F15" t="n">
-        <v>1700582.016</v>
+        <v>869307.008</v>
       </c>
       <c r="G15" t="n">
-        <v>1073260.032</v>
+        <v>861444.992</v>
       </c>
       <c r="H15" t="n">
-        <v>869307.008</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>861444.992</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -4309,109 +4309,109 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>73436</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>76902</v>
       </c>
       <c r="G21" t="n">
-        <v>73436</v>
+        <v>77112</v>
       </c>
       <c r="H21" t="n">
-        <v>76902</v>
+        <v>43262</v>
       </c>
       <c r="I21" t="n">
-        <v>77112</v>
+        <v>55893</v>
       </c>
       <c r="J21" t="n">
-        <v>43262</v>
+        <v>55278</v>
       </c>
       <c r="K21" t="n">
-        <v>55893</v>
+        <v>62786</v>
       </c>
       <c r="L21" t="n">
-        <v>55278</v>
+        <v>59526</v>
       </c>
       <c r="M21" t="n">
-        <v>62786</v>
+        <v>53229</v>
       </c>
       <c r="N21" t="n">
-        <v>59526</v>
+        <v>55296</v>
       </c>
       <c r="O21" t="n">
-        <v>53229</v>
+        <v>61527</v>
       </c>
       <c r="P21" t="n">
-        <v>55296</v>
+        <v>71988</v>
       </c>
       <c r="Q21" t="n">
-        <v>61527</v>
+        <v>1985</v>
       </c>
       <c r="R21" t="n">
-        <v>71988</v>
+        <v>1944</v>
       </c>
       <c r="S21" t="n">
-        <v>1985</v>
+        <v>1905</v>
       </c>
       <c r="T21" t="n">
-        <v>1944</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>1905</v>
+        <v>1925</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>1941</v>
       </c>
       <c r="W21" t="n">
-        <v>1925</v>
+        <v>1959</v>
       </c>
       <c r="X21" t="n">
-        <v>1941</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>1959</v>
+        <v>2039</v>
       </c>
       <c r="Z21" t="n">
-        <v>0</v>
+        <v>2060</v>
       </c>
       <c r="AA21" t="n">
-        <v>2039</v>
+        <v>2083</v>
       </c>
       <c r="AB21" t="n">
-        <v>2060</v>
+        <v>2105</v>
       </c>
       <c r="AC21" t="n">
-        <v>2083</v>
+        <v>2176</v>
       </c>
       <c r="AD21" t="n">
-        <v>2105</v>
+        <v>2201</v>
       </c>
       <c r="AE21" t="n">
-        <v>2176</v>
+        <v>2225</v>
       </c>
       <c r="AF21" t="n">
-        <v>2201</v>
+        <v>2246</v>
       </c>
       <c r="AG21" t="n">
-        <v>2225</v>
+        <v>2325</v>
       </c>
       <c r="AH21" t="n">
-        <v>2246</v>
+        <v>2343</v>
       </c>
       <c r="AI21" t="n">
-        <v>2325</v>
+        <v>2359</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2343</v>
+        <v>2370</v>
       </c>
       <c r="AK21" t="n">
-        <v>2359</v>
+        <v>2381</v>
       </c>
       <c r="AL21" t="n">
-        <v>2370</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="n">
-        <v>2381</v>
+        <v>0</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
@@ -4487,184 +4487,184 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235000.992</v>
+        <v>507803.008</v>
       </c>
       <c r="C22" t="n">
-        <v>502046.016</v>
+        <v>515790.016</v>
       </c>
       <c r="D22" t="n">
-        <v>507803.008</v>
+        <v>156763.008</v>
       </c>
       <c r="E22" t="n">
-        <v>515790.016</v>
+        <v>140308.992</v>
       </c>
       <c r="F22" t="n">
-        <v>156763.008</v>
+        <v>145066</v>
       </c>
       <c r="G22" t="n">
-        <v>140308.992</v>
+        <v>147140.992</v>
       </c>
       <c r="H22" t="n">
-        <v>145066</v>
+        <v>168528</v>
       </c>
       <c r="I22" t="n">
-        <v>147140.992</v>
+        <v>171455.008</v>
       </c>
       <c r="J22" t="n">
-        <v>168528</v>
+        <v>174871.008</v>
       </c>
       <c r="K22" t="n">
-        <v>171455.008</v>
+        <v>185210</v>
       </c>
       <c r="L22" t="n">
-        <v>174871.008</v>
+        <v>190796</v>
       </c>
       <c r="M22" t="n">
-        <v>185210</v>
+        <v>193567.008</v>
       </c>
       <c r="N22" t="n">
-        <v>190796</v>
+        <v>209544.992</v>
       </c>
       <c r="O22" t="n">
-        <v>193567.008</v>
+        <v>230620.992</v>
       </c>
       <c r="P22" t="n">
-        <v>209544.992</v>
+        <v>250352.992</v>
       </c>
       <c r="Q22" t="n">
-        <v>230620.992</v>
+        <v>709897.9840000001</v>
       </c>
       <c r="R22" t="n">
-        <v>250352.992</v>
+        <v>716657.024</v>
       </c>
       <c r="S22" t="n">
-        <v>709897.9840000001</v>
+        <v>722806.976</v>
       </c>
       <c r="T22" t="n">
-        <v>716657.024</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>722806.976</v>
+        <v>743587.968</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>750966.976</v>
       </c>
       <c r="W22" t="n">
-        <v>743587.968</v>
+        <v>765081.9840000001</v>
       </c>
       <c r="X22" t="n">
-        <v>750966.976</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>765081.9840000001</v>
+        <v>795387.008</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>797880</v>
       </c>
       <c r="AA22" t="n">
-        <v>795387.008</v>
+        <v>827531.008</v>
       </c>
       <c r="AB22" t="n">
-        <v>797880</v>
+        <v>845992</v>
       </c>
       <c r="AC22" t="n">
-        <v>827531.008</v>
+        <v>854608</v>
       </c>
       <c r="AD22" t="n">
-        <v>845992</v>
+        <v>857137.024</v>
       </c>
       <c r="AE22" t="n">
-        <v>854608</v>
+        <v>873932.992</v>
       </c>
       <c r="AF22" t="n">
-        <v>857137.024</v>
+        <v>880814.976</v>
       </c>
       <c r="AG22" t="n">
-        <v>873932.992</v>
+        <v>887246.0159999999</v>
       </c>
       <c r="AH22" t="n">
-        <v>880814.976</v>
+        <v>898934.976</v>
       </c>
       <c r="AI22" t="n">
-        <v>887246.0159999999</v>
+        <v>909627.008</v>
       </c>
       <c r="AJ22" t="n">
-        <v>898934.976</v>
+        <v>900670.976</v>
       </c>
       <c r="AK22" t="n">
-        <v>909627.008</v>
+        <v>912739.968</v>
       </c>
       <c r="AL22" t="n">
-        <v>900670.976</v>
+        <v>927374.0159999999</v>
       </c>
       <c r="AM22" t="n">
-        <v>912739.968</v>
+        <v>938406.976</v>
       </c>
       <c r="AN22" t="n">
-        <v>927374.0159999999</v>
+        <v>950577.9840000001</v>
       </c>
       <c r="AO22" t="n">
-        <v>938406.976</v>
+        <v>961745.024</v>
       </c>
       <c r="AP22" t="n">
-        <v>950577.9840000001</v>
+        <v>968438.976</v>
       </c>
       <c r="AQ22" t="n">
-        <v>961745.024</v>
+        <v>983158.0159999999</v>
       </c>
       <c r="AR22" t="n">
-        <v>968438.976</v>
+        <v>994100.992</v>
       </c>
       <c r="AS22" t="n">
-        <v>983158.0159999999</v>
+        <v>1014755.008</v>
       </c>
       <c r="AT22" t="n">
-        <v>994100.992</v>
+        <v>1028035.968</v>
       </c>
       <c r="AU22" t="n">
-        <v>1014755.008</v>
+        <v>1039848</v>
       </c>
       <c r="AV22" t="n">
-        <v>1028035.968</v>
+        <v>1015078.016</v>
       </c>
       <c r="AW22" t="n">
-        <v>1039848</v>
+        <v>1022368</v>
       </c>
       <c r="AX22" t="n">
-        <v>1015078.016</v>
+        <v>1017867.008</v>
       </c>
       <c r="AY22" t="n">
-        <v>1022368</v>
+        <v>1030580.992</v>
       </c>
       <c r="AZ22" t="n">
-        <v>1017867.008</v>
+        <v>977795.008</v>
       </c>
       <c r="BA22" t="n">
-        <v>1030580.992</v>
+        <v>978108.032</v>
       </c>
       <c r="BB22" t="n">
-        <v>977795.008</v>
+        <v>993982.976</v>
       </c>
       <c r="BC22" t="n">
-        <v>978108.032</v>
+        <v>1009212.032</v>
       </c>
       <c r="BD22" t="n">
-        <v>993982.976</v>
+        <v>1008441.984</v>
       </c>
       <c r="BE22" t="n">
-        <v>1009212.032</v>
+        <v>1021363.008</v>
       </c>
       <c r="BF22" t="n">
-        <v>1008441.984</v>
+        <v>1028481.024</v>
       </c>
       <c r="BG22" t="n">
-        <v>1021363.008</v>
+        <v>1042952</v>
       </c>
       <c r="BH22" t="n">
-        <v>1028481.024</v>
+        <v>1032059.008</v>
       </c>
       <c r="BI22" t="n">
-        <v>1042952</v>
+        <v>1036054.016</v>
       </c>
     </row>
     <row r="23">
@@ -4674,79 +4674,79 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>3535</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>3523</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3175</v>
       </c>
       <c r="F23" t="n">
-        <v>3523</v>
+        <v>2621</v>
       </c>
       <c r="G23" t="n">
-        <v>3175</v>
+        <v>2329</v>
       </c>
       <c r="H23" t="n">
-        <v>2621</v>
+        <v>1657</v>
       </c>
       <c r="I23" t="n">
-        <v>2329</v>
+        <v>1615</v>
       </c>
       <c r="J23" t="n">
-        <v>1657</v>
+        <v>1593</v>
       </c>
       <c r="K23" t="n">
-        <v>1615</v>
+        <v>1576</v>
       </c>
       <c r="L23" t="n">
-        <v>1593</v>
+        <v>1544</v>
       </c>
       <c r="M23" t="n">
-        <v>1576</v>
+        <v>1550</v>
       </c>
       <c r="N23" t="n">
-        <v>1544</v>
+        <v>1451</v>
       </c>
       <c r="O23" t="n">
-        <v>1550</v>
+        <v>1482</v>
       </c>
       <c r="P23" t="n">
-        <v>1451</v>
+        <v>1373</v>
       </c>
       <c r="Q23" t="n">
-        <v>1482</v>
+        <v>6</v>
       </c>
       <c r="R23" t="n">
-        <v>1373</v>
+        <v>6</v>
       </c>
       <c r="S23" t="n">
         <v>6</v>
       </c>
       <c r="T23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>6</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W23" t="n">
         <v>6</v>
       </c>
       <c r="X23" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>6</v>
       </c>
       <c r="Z23" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AA23" t="n">
         <v>6</v>
@@ -4867,82 +4867,82 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="F24" t="n">
-        <v>33</v>
+        <v>391</v>
       </c>
       <c r="G24" t="n">
-        <v>436</v>
+        <v>355</v>
       </c>
       <c r="H24" t="n">
-        <v>391</v>
+        <v>108</v>
       </c>
       <c r="I24" t="n">
-        <v>355</v>
+        <v>95</v>
       </c>
       <c r="J24" t="n">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="K24" t="n">
-        <v>95</v>
+        <v>311</v>
       </c>
       <c r="L24" t="n">
-        <v>99</v>
+        <v>489</v>
       </c>
       <c r="M24" t="n">
-        <v>311</v>
+        <v>495</v>
       </c>
       <c r="N24" t="n">
-        <v>489</v>
+        <v>506</v>
       </c>
       <c r="O24" t="n">
-        <v>495</v>
+        <v>449</v>
       </c>
       <c r="P24" t="n">
-        <v>506</v>
+        <v>435</v>
       </c>
       <c r="Q24" t="n">
-        <v>449</v>
+        <v>58</v>
       </c>
       <c r="R24" t="n">
-        <v>435</v>
+        <v>54</v>
       </c>
       <c r="S24" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="T24" t="n">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="W24" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="X24" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="Z24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AA24" t="n">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="AB24" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AC24" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AD24" t="n">
         <v>0</v>
@@ -5048,19 +5048,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>497</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>449</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>449</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -5235,184 +5235,184 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2939095.04</v>
+        <v>522388</v>
       </c>
       <c r="C26" t="n">
-        <v>513432</v>
+        <v>526777.9840000001</v>
       </c>
       <c r="D26" t="n">
-        <v>522388</v>
+        <v>3470307.072</v>
       </c>
       <c r="E26" t="n">
-        <v>526777.9840000001</v>
+        <v>3188077.056</v>
       </c>
       <c r="F26" t="n">
-        <v>3470307.072</v>
+        <v>3188069.12</v>
       </c>
       <c r="G26" t="n">
-        <v>3188077.056</v>
+        <v>2912958.976</v>
       </c>
       <c r="H26" t="n">
-        <v>3188069.12</v>
+        <v>2971937.024</v>
       </c>
       <c r="I26" t="n">
-        <v>2912958.976</v>
+        <v>2763374.08</v>
       </c>
       <c r="J26" t="n">
-        <v>2971937.024</v>
+        <v>3021806.08</v>
       </c>
       <c r="K26" t="n">
-        <v>2763374.08</v>
+        <v>3291697.92</v>
       </c>
       <c r="L26" t="n">
-        <v>3021806.08</v>
+        <v>3225612.032</v>
       </c>
       <c r="M26" t="n">
-        <v>3291697.92</v>
+        <v>3240893.952</v>
       </c>
       <c r="N26" t="n">
-        <v>3225612.032</v>
+        <v>3283696.128</v>
       </c>
       <c r="O26" t="n">
-        <v>3240893.952</v>
+        <v>4051496.96</v>
       </c>
       <c r="P26" t="n">
-        <v>3283696.128</v>
+        <v>3343524.096</v>
       </c>
       <c r="Q26" t="n">
-        <v>4051496.96</v>
+        <v>713284.992</v>
       </c>
       <c r="R26" t="n">
-        <v>3343524.096</v>
+        <v>724070.0159999999</v>
       </c>
       <c r="S26" t="n">
-        <v>713284.992</v>
+        <v>731259.008</v>
       </c>
       <c r="T26" t="n">
-        <v>724070.0159999999</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>731259.008</v>
+        <v>751635.008</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>758632</v>
       </c>
       <c r="W26" t="n">
-        <v>751635.008</v>
+        <v>773496</v>
       </c>
       <c r="X26" t="n">
-        <v>758632</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>773496</v>
+        <v>804062.976</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>811016</v>
       </c>
       <c r="AA26" t="n">
-        <v>804062.976</v>
+        <v>840336</v>
       </c>
       <c r="AB26" t="n">
-        <v>811016</v>
+        <v>857499.008</v>
       </c>
       <c r="AC26" t="n">
-        <v>840336</v>
+        <v>861844.992</v>
       </c>
       <c r="AD26" t="n">
-        <v>857499.008</v>
+        <v>864228.992</v>
       </c>
       <c r="AE26" t="n">
-        <v>861844.992</v>
+        <v>881172.992</v>
       </c>
       <c r="AF26" t="n">
-        <v>864228.992</v>
+        <v>889310.0159999999</v>
       </c>
       <c r="AG26" t="n">
-        <v>881172.992</v>
+        <v>900230.0159999999</v>
       </c>
       <c r="AH26" t="n">
-        <v>889310.0159999999</v>
+        <v>912131.008</v>
       </c>
       <c r="AI26" t="n">
-        <v>900230.0159999999</v>
+        <v>922072</v>
       </c>
       <c r="AJ26" t="n">
-        <v>912131.008</v>
+        <v>925348.992</v>
       </c>
       <c r="AK26" t="n">
-        <v>922072</v>
+        <v>932713.024</v>
       </c>
       <c r="AL26" t="n">
-        <v>925348.992</v>
+        <v>946548.992</v>
       </c>
       <c r="AM26" t="n">
-        <v>932713.024</v>
+        <v>957208</v>
       </c>
       <c r="AN26" t="n">
-        <v>946548.992</v>
+        <v>967257.024</v>
       </c>
       <c r="AO26" t="n">
-        <v>957208</v>
+        <v>973382.0159999999</v>
       </c>
       <c r="AP26" t="n">
-        <v>967257.024</v>
+        <v>978806.976</v>
       </c>
       <c r="AQ26" t="n">
-        <v>973382.0159999999</v>
+        <v>992998.976</v>
       </c>
       <c r="AR26" t="n">
-        <v>978806.976</v>
+        <v>1003100.032</v>
       </c>
       <c r="AS26" t="n">
-        <v>992998.976</v>
+        <v>1026339.968</v>
       </c>
       <c r="AT26" t="n">
-        <v>1003100.032</v>
+        <v>1038012.992</v>
       </c>
       <c r="AU26" t="n">
-        <v>1026339.968</v>
+        <v>1048844.032</v>
       </c>
       <c r="AV26" t="n">
-        <v>1038012.992</v>
+        <v>1037843.008</v>
       </c>
       <c r="AW26" t="n">
-        <v>1048844.032</v>
+        <v>1038036.992</v>
       </c>
       <c r="AX26" t="n">
-        <v>1037843.008</v>
+        <v>1032347.008</v>
       </c>
       <c r="AY26" t="n">
-        <v>1038036.992</v>
+        <v>1044478.016</v>
       </c>
       <c r="AZ26" t="n">
-        <v>1032347.008</v>
+        <v>1048686.976</v>
       </c>
       <c r="BA26" t="n">
-        <v>1044478.016</v>
+        <v>1043270.016</v>
       </c>
       <c r="BB26" t="n">
-        <v>1048686.976</v>
+        <v>1060235.008</v>
       </c>
       <c r="BC26" t="n">
-        <v>1043270.016</v>
+        <v>1076696.96</v>
       </c>
       <c r="BD26" t="n">
-        <v>1060235.008</v>
+        <v>1078619.008</v>
       </c>
       <c r="BE26" t="n">
-        <v>1076696.96</v>
+        <v>1083076.992</v>
       </c>
       <c r="BF26" t="n">
-        <v>1078619.008</v>
+        <v>1090467.968</v>
       </c>
       <c r="BG26" t="n">
-        <v>1083076.992</v>
+        <v>1105720.064</v>
       </c>
       <c r="BH26" t="n">
-        <v>1090467.968</v>
+        <v>1094722.944</v>
       </c>
       <c r="BI26" t="n">
-        <v>1105720.064</v>
+        <v>1091335.04</v>
       </c>
     </row>
     <row r="27">
@@ -5422,184 +5422,184 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1277638.016</v>
+        <v>5176</v>
       </c>
       <c r="C27" t="n">
-        <v>1929</v>
+        <v>2091</v>
       </c>
       <c r="D27" t="n">
-        <v>5176</v>
+        <v>1782050.048</v>
       </c>
       <c r="E27" t="n">
-        <v>2091</v>
+        <v>1503078.016</v>
       </c>
       <c r="F27" t="n">
-        <v>1782050.048</v>
+        <v>1491175.936</v>
       </c>
       <c r="G27" t="n">
-        <v>1503078.016</v>
+        <v>1270758.016</v>
       </c>
       <c r="H27" t="n">
-        <v>1491175.936</v>
+        <v>1227975.04</v>
       </c>
       <c r="I27" t="n">
-        <v>1270758.016</v>
+        <v>1277318.016</v>
       </c>
       <c r="J27" t="n">
-        <v>1227975.04</v>
+        <v>1487176.96</v>
       </c>
       <c r="K27" t="n">
-        <v>1277318.016</v>
+        <v>1637059.968</v>
       </c>
       <c r="L27" t="n">
-        <v>1487176.96</v>
+        <v>1534903.04</v>
       </c>
       <c r="M27" t="n">
-        <v>1637059.968</v>
+        <v>1417458.048</v>
       </c>
       <c r="N27" t="n">
-        <v>1534903.04</v>
+        <v>1346695.936</v>
       </c>
       <c r="O27" t="n">
-        <v>1417458.048</v>
+        <v>1957665.024</v>
       </c>
       <c r="P27" t="n">
-        <v>1346695.936</v>
+        <v>1562904.96</v>
       </c>
       <c r="Q27" t="n">
-        <v>1957665.024</v>
+        <v>2286</v>
       </c>
       <c r="R27" t="n">
-        <v>1562904.96</v>
+        <v>4177</v>
       </c>
       <c r="S27" t="n">
-        <v>2286</v>
+        <v>4087</v>
       </c>
       <c r="T27" t="n">
-        <v>4177</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>4087</v>
+        <v>1984</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>3527</v>
       </c>
       <c r="W27" t="n">
-        <v>1984</v>
+        <v>3425</v>
       </c>
       <c r="X27" t="n">
-        <v>3527</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>3425</v>
+        <v>2739</v>
       </c>
       <c r="Z27" t="n">
-        <v>0</v>
+        <v>3581</v>
       </c>
       <c r="AA27" t="n">
-        <v>2739</v>
+        <v>3602</v>
       </c>
       <c r="AB27" t="n">
-        <v>3581</v>
+        <v>5830</v>
       </c>
       <c r="AC27" t="n">
-        <v>3602</v>
+        <v>2003</v>
       </c>
       <c r="AD27" t="n">
-        <v>5830</v>
+        <v>3570</v>
       </c>
       <c r="AE27" t="n">
-        <v>2003</v>
+        <v>3651</v>
       </c>
       <c r="AF27" t="n">
-        <v>3570</v>
+        <v>6114</v>
       </c>
       <c r="AG27" t="n">
-        <v>3651</v>
+        <v>10947</v>
       </c>
       <c r="AH27" t="n">
-        <v>6114</v>
+        <v>12767</v>
       </c>
       <c r="AI27" t="n">
-        <v>10947</v>
+        <v>13037</v>
       </c>
       <c r="AJ27" t="n">
-        <v>12767</v>
+        <v>6631</v>
       </c>
       <c r="AK27" t="n">
-        <v>13037</v>
+        <v>2159</v>
       </c>
       <c r="AL27" t="n">
-        <v>6631</v>
+        <v>4066</v>
       </c>
       <c r="AM27" t="n">
-        <v>2159</v>
+        <v>4246</v>
       </c>
       <c r="AN27" t="n">
-        <v>4066</v>
+        <v>7099</v>
       </c>
       <c r="AO27" t="n">
-        <v>4246</v>
+        <v>2687</v>
       </c>
       <c r="AP27" t="n">
-        <v>7099</v>
+        <v>2920</v>
       </c>
       <c r="AQ27" t="n">
-        <v>2687</v>
+        <v>3136</v>
       </c>
       <c r="AR27" t="n">
-        <v>2920</v>
+        <v>8945</v>
       </c>
       <c r="AS27" t="n">
-        <v>3136</v>
+        <v>12813</v>
       </c>
       <c r="AT27" t="n">
-        <v>8945</v>
+        <v>12999</v>
       </c>
       <c r="AU27" t="n">
-        <v>12813</v>
+        <v>12861</v>
       </c>
       <c r="AV27" t="n">
-        <v>12999</v>
+        <v>9586</v>
       </c>
       <c r="AW27" t="n">
-        <v>12861</v>
+        <v>2884</v>
       </c>
       <c r="AX27" t="n">
-        <v>9586</v>
+        <v>3278</v>
       </c>
       <c r="AY27" t="n">
-        <v>2884</v>
+        <v>3502</v>
       </c>
       <c r="AZ27" t="n">
-        <v>3278</v>
+        <v>9685</v>
       </c>
       <c r="BA27" t="n">
-        <v>3502</v>
+        <v>3257</v>
       </c>
       <c r="BB27" t="n">
-        <v>9685</v>
+        <v>4085</v>
       </c>
       <c r="BC27" t="n">
-        <v>3257</v>
+        <v>4546</v>
       </c>
       <c r="BD27" t="n">
-        <v>4085</v>
+        <v>11752</v>
       </c>
       <c r="BE27" t="n">
-        <v>4546</v>
+        <v>3069</v>
       </c>
       <c r="BF27" t="n">
-        <v>11752</v>
+        <v>3690</v>
       </c>
       <c r="BG27" t="n">
-        <v>3069</v>
+        <v>4981</v>
       </c>
       <c r="BH27" t="n">
-        <v>3690</v>
+        <v>11799</v>
       </c>
       <c r="BI27" t="n">
-        <v>4981</v>
+        <v>3752</v>
       </c>
     </row>
     <row r="28">
@@ -5630,73 +5630,73 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>1004</v>
       </c>
       <c r="K28" t="n">
-        <v>1004</v>
+        <v>1127</v>
       </c>
       <c r="L28" t="n">
-        <v>1004</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>1127</v>
+        <v>973</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>973</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="S28" t="n">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="T28" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W28" t="n">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="X28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>16</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>17</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>18</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD28" t="n">
         <v>9</v>
       </c>
-      <c r="Y28" t="n">
-        <v>48</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>16</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>17</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>18</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>0</v>
-      </c>
       <c r="AE28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
         <v>9</v>
@@ -5714,13 +5714,13 @@
         <v>9</v>
       </c>
       <c r="AK28" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AL28" t="n">
         <v>9</v>
       </c>
       <c r="AM28" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AN28" t="n">
         <v>9</v>
@@ -5796,184 +5796,184 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E29" t="n">
         <v>5</v>
       </c>
       <c r="F29" t="n">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>83</v>
+      </c>
+      <c r="J29" t="n">
+        <v>167</v>
+      </c>
+      <c r="K29" t="n">
+        <v>121</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>79</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>22</v>
+      </c>
+      <c r="R29" t="n">
+        <v>8</v>
+      </c>
+      <c r="S29" t="n">
+        <v>9</v>
+      </c>
+      <c r="T29" t="n">
+        <v>0</v>
+      </c>
+      <c r="U29" t="n">
+        <v>76</v>
+      </c>
+      <c r="V29" t="n">
+        <v>6</v>
+      </c>
+      <c r="W29" t="n">
         <v>5</v>
       </c>
-      <c r="H29" t="n">
-        <v>13</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>83</v>
-      </c>
-      <c r="L29" t="n">
-        <v>167</v>
-      </c>
-      <c r="M29" t="n">
-        <v>121</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>79</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>22</v>
-      </c>
-      <c r="T29" t="n">
-        <v>8</v>
-      </c>
-      <c r="U29" t="n">
-        <v>9</v>
-      </c>
-      <c r="V29" t="n">
-        <v>0</v>
-      </c>
-      <c r="W29" t="n">
-        <v>76</v>
-      </c>
       <c r="X29" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="Z29" t="n">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="AA29" t="n">
+        <v>59</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>78</v>
+      </c>
+      <c r="AC29" t="n">
         <v>116</v>
       </c>
-      <c r="AB29" t="n">
-        <v>31</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>59</v>
-      </c>
       <c r="AD29" t="n">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="AE29" t="n">
-        <v>116</v>
+        <v>74</v>
       </c>
       <c r="AF29" t="n">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="AG29" t="n">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="AH29" t="n">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="AI29" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="AJ29" t="n">
-        <v>73</v>
+        <v>194</v>
       </c>
       <c r="AK29" t="n">
-        <v>146</v>
+        <v>243</v>
       </c>
       <c r="AL29" t="n">
-        <v>194</v>
+        <v>279</v>
       </c>
       <c r="AM29" t="n">
-        <v>243</v>
+        <v>341</v>
       </c>
       <c r="AN29" t="n">
-        <v>279</v>
+        <v>446</v>
       </c>
       <c r="AO29" t="n">
-        <v>341</v>
+        <v>475</v>
       </c>
       <c r="AP29" t="n">
-        <v>446</v>
+        <v>471</v>
       </c>
       <c r="AQ29" t="n">
-        <v>475</v>
+        <v>555</v>
       </c>
       <c r="AR29" t="n">
-        <v>471</v>
+        <v>646</v>
       </c>
       <c r="AS29" t="n">
-        <v>555</v>
+        <v>1079</v>
       </c>
       <c r="AT29" t="n">
-        <v>646</v>
+        <v>955</v>
       </c>
       <c r="AU29" t="n">
-        <v>1079</v>
+        <v>673</v>
       </c>
       <c r="AV29" t="n">
-        <v>955</v>
+        <v>892</v>
       </c>
       <c r="AW29" t="n">
-        <v>673</v>
+        <v>721</v>
       </c>
       <c r="AX29" t="n">
-        <v>892</v>
+        <v>652</v>
       </c>
       <c r="AY29" t="n">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="AZ29" t="n">
-        <v>652</v>
+        <v>699</v>
       </c>
       <c r="BA29" t="n">
-        <v>711</v>
+        <v>687</v>
       </c>
       <c r="BB29" t="n">
-        <v>699</v>
+        <v>687</v>
       </c>
       <c r="BC29" t="n">
-        <v>687</v>
+        <v>731</v>
       </c>
       <c r="BD29" t="n">
-        <v>687</v>
+        <v>742</v>
       </c>
       <c r="BE29" t="n">
-        <v>731</v>
+        <v>686</v>
       </c>
       <c r="BF29" t="n">
-        <v>742</v>
+        <v>679</v>
       </c>
       <c r="BG29" t="n">
-        <v>686</v>
+        <v>1504</v>
       </c>
       <c r="BH29" t="n">
-        <v>679</v>
+        <v>1542</v>
       </c>
       <c r="BI29" t="n">
-        <v>1504</v>
+        <v>804</v>
       </c>
     </row>
     <row r="30">
@@ -5983,40 +5983,40 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4378</v>
+        <v>913</v>
       </c>
       <c r="C30" t="n">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="D30" t="n">
-        <v>913</v>
+        <v>11971</v>
       </c>
       <c r="E30" t="n">
-        <v>78</v>
+        <v>9275</v>
       </c>
       <c r="F30" t="n">
-        <v>11971</v>
+        <v>13636</v>
       </c>
       <c r="G30" t="n">
-        <v>9275</v>
+        <v>7140</v>
       </c>
       <c r="H30" t="n">
-        <v>13636</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>7140</v>
+        <v>13348</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>30825</v>
       </c>
       <c r="K30" t="n">
-        <v>13348</v>
+        <v>10363</v>
       </c>
       <c r="L30" t="n">
-        <v>30825</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>10363</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -6028,139 +6028,139 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="S30" t="n">
-        <v>63</v>
+        <v>300</v>
       </c>
       <c r="T30" t="n">
-        <v>309</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>300</v>
+        <v>59</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="W30" t="n">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="X30" t="n">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="Z30" t="n">
-        <v>0</v>
+        <v>147</v>
       </c>
       <c r="AA30" t="n">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AB30" t="n">
-        <v>147</v>
+        <v>208</v>
       </c>
       <c r="AC30" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="AD30" t="n">
-        <v>208</v>
+        <v>149</v>
       </c>
       <c r="AE30" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AF30" t="n">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="AG30" t="n">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AH30" t="n">
-        <v>162</v>
+        <v>188</v>
       </c>
       <c r="AI30" t="n">
-        <v>76</v>
+        <v>244</v>
       </c>
       <c r="AJ30" t="n">
-        <v>188</v>
+        <v>133</v>
       </c>
       <c r="AK30" t="n">
-        <v>244</v>
+        <v>82</v>
       </c>
       <c r="AL30" t="n">
-        <v>133</v>
+        <v>99</v>
       </c>
       <c r="AM30" t="n">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AN30" t="n">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="AO30" t="n">
         <v>79</v>
       </c>
       <c r="AP30" t="n">
-        <v>113</v>
+        <v>84</v>
       </c>
       <c r="AQ30" t="n">
         <v>79</v>
       </c>
       <c r="AR30" t="n">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="AS30" t="n">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AT30" t="n">
-        <v>136</v>
+        <v>70</v>
       </c>
       <c r="AU30" t="n">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AV30" t="n">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="AW30" t="n">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="AX30" t="n">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AY30" t="n">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="AZ30" t="n">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="BA30" t="n">
-        <v>74</v>
+        <v>287</v>
       </c>
       <c r="BB30" t="n">
-        <v>133</v>
+        <v>623</v>
       </c>
       <c r="BC30" t="n">
-        <v>287</v>
+        <v>853</v>
       </c>
       <c r="BD30" t="n">
-        <v>623</v>
+        <v>1913</v>
       </c>
       <c r="BE30" t="n">
-        <v>853</v>
+        <v>119</v>
       </c>
       <c r="BF30" t="n">
-        <v>1913</v>
+        <v>160</v>
       </c>
       <c r="BG30" t="n">
-        <v>119</v>
+        <v>416</v>
       </c>
       <c r="BH30" t="n">
-        <v>160</v>
+        <v>522</v>
       </c>
       <c r="BI30" t="n">
-        <v>416</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
@@ -6170,28 +6170,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>66730</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>21825</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>125002</v>
       </c>
       <c r="F31" t="n">
-        <v>21825</v>
+        <v>145526.008</v>
       </c>
       <c r="G31" t="n">
-        <v>125002</v>
+        <v>142654</v>
       </c>
       <c r="H31" t="n">
-        <v>145526.008</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>142654</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -6544,28 +6544,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>12304</v>
+        <v>4171</v>
       </c>
       <c r="C33" t="n">
-        <v>1799</v>
+        <v>1917</v>
       </c>
       <c r="D33" t="n">
-        <v>4171</v>
+        <v>10616</v>
       </c>
       <c r="E33" t="n">
-        <v>1917</v>
+        <v>5570</v>
       </c>
       <c r="F33" t="n">
-        <v>10616</v>
+        <v>9694</v>
       </c>
       <c r="G33" t="n">
-        <v>5570</v>
+        <v>5019</v>
       </c>
       <c r="H33" t="n">
-        <v>9694</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>5019</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -6589,139 +6589,139 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>1019</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>3514</v>
       </c>
       <c r="S33" t="n">
-        <v>1019</v>
+        <v>3405</v>
       </c>
       <c r="T33" t="n">
-        <v>3514</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>3405</v>
+        <v>1115</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>2844</v>
       </c>
       <c r="W33" t="n">
-        <v>1115</v>
+        <v>2654</v>
       </c>
       <c r="X33" t="n">
-        <v>2844</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>2654</v>
+        <v>1993</v>
       </c>
       <c r="Z33" t="n">
-        <v>0</v>
+        <v>3121</v>
       </c>
       <c r="AA33" t="n">
-        <v>1993</v>
+        <v>3119</v>
       </c>
       <c r="AB33" t="n">
-        <v>3121</v>
+        <v>5129</v>
       </c>
       <c r="AC33" t="n">
-        <v>3119</v>
+        <v>1339</v>
       </c>
       <c r="AD33" t="n">
-        <v>5129</v>
+        <v>3289</v>
       </c>
       <c r="AE33" t="n">
-        <v>1339</v>
+        <v>3283</v>
       </c>
       <c r="AF33" t="n">
-        <v>3289</v>
+        <v>5442</v>
       </c>
       <c r="AG33" t="n">
-        <v>3283</v>
+        <v>1226</v>
       </c>
       <c r="AH33" t="n">
-        <v>5442</v>
+        <v>3403</v>
       </c>
       <c r="AI33" t="n">
-        <v>1226</v>
+        <v>3403</v>
       </c>
       <c r="AJ33" t="n">
-        <v>3403</v>
+        <v>5919</v>
       </c>
       <c r="AK33" t="n">
-        <v>3403</v>
+        <v>1305</v>
       </c>
       <c r="AL33" t="n">
-        <v>5919</v>
+        <v>3585</v>
       </c>
       <c r="AM33" t="n">
-        <v>1305</v>
+        <v>3582</v>
       </c>
       <c r="AN33" t="n">
-        <v>3585</v>
+        <v>6155</v>
       </c>
       <c r="AO33" t="n">
-        <v>3582</v>
+        <v>1607</v>
       </c>
       <c r="AP33" t="n">
-        <v>6155</v>
+        <v>2262</v>
       </c>
       <c r="AQ33" t="n">
-        <v>1607</v>
+        <v>2258</v>
       </c>
       <c r="AR33" t="n">
-        <v>2262</v>
+        <v>7778</v>
       </c>
       <c r="AS33" t="n">
-        <v>2258</v>
+        <v>1628</v>
       </c>
       <c r="AT33" t="n">
-        <v>7778</v>
+        <v>2371</v>
       </c>
       <c r="AU33" t="n">
-        <v>1628</v>
+        <v>2369</v>
       </c>
       <c r="AV33" t="n">
-        <v>2371</v>
+        <v>8070</v>
       </c>
       <c r="AW33" t="n">
-        <v>2369</v>
+        <v>1420</v>
       </c>
       <c r="AX33" t="n">
-        <v>8070</v>
+        <v>2461</v>
       </c>
       <c r="AY33" t="n">
-        <v>1420</v>
+        <v>2456</v>
       </c>
       <c r="AZ33" t="n">
-        <v>2461</v>
+        <v>8343</v>
       </c>
       <c r="BA33" t="n">
-        <v>2456</v>
+        <v>1464</v>
       </c>
       <c r="BB33" t="n">
-        <v>8343</v>
+        <v>2577</v>
       </c>
       <c r="BC33" t="n">
-        <v>1464</v>
+        <v>2575</v>
       </c>
       <c r="BD33" t="n">
-        <v>2577</v>
+        <v>8522</v>
       </c>
       <c r="BE33" t="n">
-        <v>2575</v>
+        <v>1499</v>
       </c>
       <c r="BF33" t="n">
-        <v>8522</v>
+        <v>2632</v>
       </c>
       <c r="BG33" t="n">
-        <v>1499</v>
+        <v>2632</v>
       </c>
       <c r="BH33" t="n">
-        <v>2632</v>
+        <v>9096</v>
       </c>
       <c r="BI33" t="n">
-        <v>2632</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="34">
@@ -6731,184 +6731,184 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1193410.048</v>
+        <v>5</v>
       </c>
       <c r="C34" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
-        <v>5</v>
+        <v>1736732.032</v>
       </c>
       <c r="E34" t="n">
-        <v>5</v>
+        <v>1363225.984</v>
       </c>
       <c r="F34" t="n">
-        <v>1736732.032</v>
+        <v>1322306.944</v>
       </c>
       <c r="G34" t="n">
-        <v>1363225.984</v>
+        <v>1115944.96</v>
       </c>
       <c r="H34" t="n">
-        <v>1322306.944</v>
+        <v>1227975.04</v>
       </c>
       <c r="I34" t="n">
-        <v>1115944.96</v>
+        <v>1262882.944</v>
       </c>
       <c r="J34" t="n">
-        <v>1227975.04</v>
+        <v>1455181.056</v>
       </c>
       <c r="K34" t="n">
-        <v>1262882.944</v>
+        <v>1625448.96</v>
       </c>
       <c r="L34" t="n">
-        <v>1455181.056</v>
+        <v>1534903.04</v>
       </c>
       <c r="M34" t="n">
-        <v>1625448.96</v>
+        <v>1416406.016</v>
       </c>
       <c r="N34" t="n">
-        <v>1534903.04</v>
+        <v>1346695.936</v>
       </c>
       <c r="O34" t="n">
-        <v>1416406.016</v>
+        <v>1957665.024</v>
       </c>
       <c r="P34" t="n">
-        <v>1346695.936</v>
+        <v>1562904.96</v>
       </c>
       <c r="Q34" t="n">
-        <v>1957665.024</v>
+        <v>1155</v>
       </c>
       <c r="R34" t="n">
-        <v>1562904.96</v>
+        <v>180</v>
       </c>
       <c r="S34" t="n">
-        <v>1155</v>
+        <v>360</v>
       </c>
       <c r="T34" t="n">
-        <v>180</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>360</v>
+        <v>720</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="W34" t="n">
-        <v>720</v>
+        <v>688</v>
       </c>
       <c r="X34" t="n">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>688</v>
+        <v>550</v>
       </c>
       <c r="Z34" t="n">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="AA34" t="n">
-        <v>550</v>
+        <v>340</v>
       </c>
       <c r="AB34" t="n">
-        <v>265</v>
+        <v>415</v>
       </c>
       <c r="AC34" t="n">
-        <v>340</v>
+        <v>477</v>
       </c>
       <c r="AD34" t="n">
-        <v>415</v>
+        <v>72</v>
       </c>
       <c r="AE34" t="n">
-        <v>477</v>
+        <v>213</v>
       </c>
       <c r="AF34" t="n">
-        <v>72</v>
+        <v>354</v>
       </c>
       <c r="AG34" t="n">
-        <v>213</v>
+        <v>9495</v>
       </c>
       <c r="AH34" t="n">
-        <v>354</v>
+        <v>9094</v>
       </c>
       <c r="AI34" t="n">
-        <v>9495</v>
+        <v>9235</v>
       </c>
       <c r="AJ34" t="n">
-        <v>9094</v>
+        <v>376</v>
       </c>
       <c r="AK34" t="n">
-        <v>9235</v>
+        <v>517</v>
       </c>
       <c r="AL34" t="n">
+        <v>94</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>235</v>
+      </c>
+      <c r="AN34" t="n">
         <v>376</v>
       </c>
-      <c r="AM34" t="n">
+      <c r="AO34" t="n">
         <v>517</v>
       </c>
-      <c r="AN34" t="n">
+      <c r="AP34" t="n">
         <v>94</v>
       </c>
-      <c r="AO34" t="n">
+      <c r="AQ34" t="n">
         <v>235</v>
       </c>
-      <c r="AP34" t="n">
+      <c r="AR34" t="n">
         <v>376</v>
       </c>
-      <c r="AQ34" t="n">
-        <v>517</v>
-      </c>
-      <c r="AR34" t="n">
-        <v>94</v>
-      </c>
       <c r="AS34" t="n">
-        <v>235</v>
+        <v>10017</v>
       </c>
       <c r="AT34" t="n">
-        <v>376</v>
+        <v>9594</v>
       </c>
       <c r="AU34" t="n">
-        <v>10017</v>
+        <v>9735</v>
       </c>
       <c r="AV34" t="n">
-        <v>9594</v>
+        <v>526</v>
       </c>
       <c r="AW34" t="n">
-        <v>9735</v>
+        <v>666</v>
       </c>
       <c r="AX34" t="n">
-        <v>526</v>
+        <v>63</v>
       </c>
       <c r="AY34" t="n">
-        <v>666</v>
+        <v>252</v>
       </c>
       <c r="AZ34" t="n">
-        <v>63</v>
+        <v>501</v>
       </c>
       <c r="BA34" t="n">
-        <v>252</v>
+        <v>810</v>
       </c>
       <c r="BB34" t="n">
-        <v>501</v>
+        <v>189</v>
       </c>
       <c r="BC34" t="n">
-        <v>810</v>
+        <v>378</v>
       </c>
       <c r="BD34" t="n">
-        <v>189</v>
+        <v>566</v>
       </c>
       <c r="BE34" t="n">
-        <v>378</v>
+        <v>756</v>
       </c>
       <c r="BF34" t="n">
-        <v>566</v>
+        <v>210</v>
       </c>
       <c r="BG34" t="n">
-        <v>756</v>
+        <v>420</v>
       </c>
       <c r="BH34" t="n">
-        <v>210</v>
+        <v>630</v>
       </c>
       <c r="BI34" t="n">
-        <v>420</v>
+        <v>769</v>
       </c>
     </row>
     <row r="35">
@@ -6918,19 +6918,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>815</v>
+        <v>83</v>
       </c>
       <c r="C35" t="n">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="D35" t="n">
-        <v>83</v>
+        <v>874</v>
       </c>
       <c r="E35" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>874</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -6966,13 +6966,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -7292,79 +7292,79 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1135910.016</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1099665.024</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1090310.016</v>
       </c>
       <c r="F37" t="n">
-        <v>1099665.024</v>
+        <v>1102358.016</v>
       </c>
       <c r="G37" t="n">
-        <v>1090310.016</v>
+        <v>1038464</v>
       </c>
       <c r="H37" t="n">
-        <v>1102358.016</v>
+        <v>1138999.04</v>
       </c>
       <c r="I37" t="n">
-        <v>1038464</v>
+        <v>872462.976</v>
       </c>
       <c r="J37" t="n">
-        <v>1138999.04</v>
+        <v>912739.008</v>
       </c>
       <c r="K37" t="n">
-        <v>872462.976</v>
+        <v>1011176</v>
       </c>
       <c r="L37" t="n">
-        <v>912739.008</v>
+        <v>1038281.024</v>
       </c>
       <c r="M37" t="n">
-        <v>1011176</v>
+        <v>1158553.984</v>
       </c>
       <c r="N37" t="n">
-        <v>1038281.024</v>
+        <v>1263773.056</v>
       </c>
       <c r="O37" t="n">
-        <v>1158553.984</v>
+        <v>1408664.064</v>
       </c>
       <c r="P37" t="n">
-        <v>1263773.056</v>
+        <v>1076443.008</v>
       </c>
       <c r="Q37" t="n">
-        <v>1408664.064</v>
+        <v>151</v>
       </c>
       <c r="R37" t="n">
-        <v>1076443.008</v>
+        <v>150</v>
       </c>
       <c r="S37" t="n">
         <v>151</v>
       </c>
       <c r="T37" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>151</v>
+        <v>195</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="W37" t="n">
         <v>195</v>
       </c>
       <c r="X37" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="Z37" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="AA37" t="n">
         <v>242</v>
@@ -7376,19 +7376,19 @@
         <v>242</v>
       </c>
       <c r="AD37" t="n">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="AE37" t="n">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="AF37" t="n">
         <v>294</v>
       </c>
       <c r="AG37" t="n">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="AH37" t="n">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="AI37" t="n">
         <v>353</v>
@@ -7397,31 +7397,31 @@
         <v>353</v>
       </c>
       <c r="AK37" t="n">
+        <v>417</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>416</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>416</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>417</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>417</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>354</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>354</v>
+      </c>
+      <c r="AR37" t="n">
         <v>353</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AS37" t="n">
         <v>353</v>
-      </c>
-      <c r="AM37" t="n">
-        <v>417</v>
-      </c>
-      <c r="AN37" t="n">
-        <v>416</v>
-      </c>
-      <c r="AO37" t="n">
-        <v>416</v>
-      </c>
-      <c r="AP37" t="n">
-        <v>417</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>417</v>
-      </c>
-      <c r="AR37" t="n">
-        <v>354</v>
-      </c>
-      <c r="AS37" t="n">
-        <v>354</v>
       </c>
       <c r="AT37" t="n">
         <v>353</v>
@@ -7430,10 +7430,10 @@
         <v>353</v>
       </c>
       <c r="AV37" t="n">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="AW37" t="n">
-        <v>353</v>
+        <v>116</v>
       </c>
       <c r="AX37" t="n">
         <v>116</v>
@@ -7460,16 +7460,16 @@
         <v>116</v>
       </c>
       <c r="BF37" t="n">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="BG37" t="n">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="BH37" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="BI37" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38">
@@ -7479,28 +7479,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1135910.016</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>1099665.024</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>189740</v>
       </c>
       <c r="F38" t="n">
-        <v>1099665.024</v>
+        <v>177655.008</v>
       </c>
       <c r="G38" t="n">
-        <v>189740</v>
+        <v>205444</v>
       </c>
       <c r="H38" t="n">
-        <v>177655.008</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>205444</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -7862,70 +7862,70 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>900569.9840000001</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>924702.976</v>
       </c>
       <c r="G40" t="n">
-        <v>900569.9840000001</v>
+        <v>833020.032</v>
       </c>
       <c r="H40" t="n">
-        <v>924702.976</v>
+        <v>1138999.04</v>
       </c>
       <c r="I40" t="n">
-        <v>833020.032</v>
+        <v>872462.976</v>
       </c>
       <c r="J40" t="n">
-        <v>1138999.04</v>
+        <v>912739.008</v>
       </c>
       <c r="K40" t="n">
-        <v>872462.976</v>
+        <v>1011176</v>
       </c>
       <c r="L40" t="n">
-        <v>912739.008</v>
+        <v>1038281.024</v>
       </c>
       <c r="M40" t="n">
-        <v>1011176</v>
+        <v>1158553.984</v>
       </c>
       <c r="N40" t="n">
-        <v>1038281.024</v>
+        <v>1263773.056</v>
       </c>
       <c r="O40" t="n">
-        <v>1158553.984</v>
+        <v>1408664.064</v>
       </c>
       <c r="P40" t="n">
-        <v>1263773.056</v>
+        <v>1076443.008</v>
       </c>
       <c r="Q40" t="n">
-        <v>1408664.064</v>
+        <v>151</v>
       </c>
       <c r="R40" t="n">
-        <v>1076443.008</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="W40" t="n">
         <v>195</v>
       </c>
       <c r="X40" t="n">
-        <v>195</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>195</v>
+        <v>242</v>
       </c>
       <c r="Z40" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="AA40" t="n">
         <v>242</v>
@@ -7937,19 +7937,19 @@
         <v>242</v>
       </c>
       <c r="AD40" t="n">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="AE40" t="n">
-        <v>242</v>
+        <v>294</v>
       </c>
       <c r="AF40" t="n">
         <v>294</v>
       </c>
       <c r="AG40" t="n">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="AH40" t="n">
-        <v>294</v>
+        <v>353</v>
       </c>
       <c r="AI40" t="n">
         <v>353</v>
@@ -7958,43 +7958,43 @@
         <v>353</v>
       </c>
       <c r="AK40" t="n">
+        <v>417</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>416</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>416</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>417</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>417</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>354</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>354</v>
+      </c>
+      <c r="AR40" t="n">
         <v>353</v>
       </c>
-      <c r="AL40" t="n">
-        <v>353</v>
-      </c>
-      <c r="AM40" t="n">
-        <v>417</v>
-      </c>
-      <c r="AN40" t="n">
-        <v>416</v>
-      </c>
-      <c r="AO40" t="n">
-        <v>416</v>
-      </c>
-      <c r="AP40" t="n">
-        <v>417</v>
-      </c>
-      <c r="AQ40" t="n">
-        <v>417</v>
-      </c>
-      <c r="AR40" t="n">
-        <v>354</v>
-      </c>
       <c r="AS40" t="n">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="AT40" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
       </c>
       <c r="AV40" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AW40" t="n">
-        <v>0</v>
+        <v>116</v>
       </c>
       <c r="AX40" t="n">
         <v>116</v>
@@ -8021,16 +8021,16 @@
         <v>116</v>
       </c>
       <c r="BF40" t="n">
-        <v>116</v>
+        <v>50</v>
       </c>
       <c r="BG40" t="n">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="BH40" t="n">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="BI40" t="n">
-        <v>90</v>
+        <v>93</v>
       </c>
     </row>
     <row r="41">
@@ -8462,16 +8462,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>151</v>
       </c>
       <c r="T43" t="n">
-        <v>150</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -8543,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="AT43" t="n">
-        <v>0</v>
+        <v>353</v>
       </c>
       <c r="AU43" t="n">
         <v>353</v>
       </c>
       <c r="AV43" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="AW43" t="n">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="AX43" t="n">
         <v>0</v>
@@ -8975,19 +8975,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>25636</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>33579</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>33579</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -9162,184 +9162,184 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>499911.008</v>
+        <v>517212</v>
       </c>
       <c r="C47" t="n">
-        <v>511503.008</v>
+        <v>524687.008</v>
       </c>
       <c r="D47" t="n">
-        <v>517212</v>
+        <v>555012.992</v>
       </c>
       <c r="E47" t="n">
-        <v>524687.008</v>
+        <v>594689.024</v>
       </c>
       <c r="F47" t="n">
-        <v>555012.992</v>
+        <v>594534.976</v>
       </c>
       <c r="G47" t="n">
-        <v>594689.024</v>
+        <v>603737.024</v>
       </c>
       <c r="H47" t="n">
-        <v>594534.976</v>
+        <v>604963.008</v>
       </c>
       <c r="I47" t="n">
-        <v>603737.024</v>
+        <v>613593.024</v>
       </c>
       <c r="J47" t="n">
-        <v>604963.008</v>
+        <v>621889.9840000001</v>
       </c>
       <c r="K47" t="n">
-        <v>613593.024</v>
+        <v>643462.0159999999</v>
       </c>
       <c r="L47" t="n">
-        <v>621889.9840000001</v>
+        <v>652428.032</v>
       </c>
       <c r="M47" t="n">
-        <v>643462.0159999999</v>
+        <v>664881.9840000001</v>
       </c>
       <c r="N47" t="n">
-        <v>652428.032</v>
+        <v>673227.008</v>
       </c>
       <c r="O47" t="n">
-        <v>664881.9840000001</v>
+        <v>685168</v>
       </c>
       <c r="P47" t="n">
-        <v>673227.008</v>
+        <v>704176</v>
       </c>
       <c r="Q47" t="n">
-        <v>685168</v>
+        <v>710848</v>
       </c>
       <c r="R47" t="n">
-        <v>704176</v>
+        <v>719742.976</v>
       </c>
       <c r="S47" t="n">
-        <v>710848</v>
+        <v>727020.992</v>
       </c>
       <c r="T47" t="n">
-        <v>719742.976</v>
+        <v>0</v>
       </c>
       <c r="U47" t="n">
-        <v>727020.992</v>
+        <v>749456</v>
       </c>
       <c r="V47" t="n">
-        <v>0</v>
+        <v>754910.0159999999</v>
       </c>
       <c r="W47" t="n">
-        <v>749456</v>
+        <v>769875.968</v>
       </c>
       <c r="X47" t="n">
-        <v>754910.0159999999</v>
+        <v>0</v>
       </c>
       <c r="Y47" t="n">
-        <v>769875.968</v>
+        <v>801081.9840000001</v>
       </c>
       <c r="Z47" t="n">
-        <v>0</v>
+        <v>807193.024</v>
       </c>
       <c r="AA47" t="n">
-        <v>801081.9840000001</v>
+        <v>836492.032</v>
       </c>
       <c r="AB47" t="n">
-        <v>807193.024</v>
+        <v>851427.008</v>
       </c>
       <c r="AC47" t="n">
-        <v>836492.032</v>
+        <v>859600</v>
       </c>
       <c r="AD47" t="n">
-        <v>851427.008</v>
+        <v>860364.992</v>
       </c>
       <c r="AE47" t="n">
-        <v>859600</v>
+        <v>877228.032</v>
       </c>
       <c r="AF47" t="n">
-        <v>860364.992</v>
+        <v>882902.0159999999</v>
       </c>
       <c r="AG47" t="n">
-        <v>877228.032</v>
+        <v>888929.9840000001</v>
       </c>
       <c r="AH47" t="n">
-        <v>882902.0159999999</v>
+        <v>899011.008</v>
       </c>
       <c r="AI47" t="n">
-        <v>888929.9840000001</v>
+        <v>908681.9840000001</v>
       </c>
       <c r="AJ47" t="n">
-        <v>899011.008</v>
+        <v>918364.992</v>
       </c>
       <c r="AK47" t="n">
-        <v>908681.9840000001</v>
+        <v>930137.024</v>
       </c>
       <c r="AL47" t="n">
-        <v>918364.992</v>
+        <v>942067.008</v>
       </c>
       <c r="AM47" t="n">
-        <v>930137.024</v>
+        <v>952545.9840000001</v>
       </c>
       <c r="AN47" t="n">
-        <v>942067.008</v>
+        <v>959740.992</v>
       </c>
       <c r="AO47" t="n">
-        <v>952545.9840000001</v>
+        <v>970278.0159999999</v>
       </c>
       <c r="AP47" t="n">
-        <v>959740.992</v>
+        <v>975532.992</v>
       </c>
       <c r="AQ47" t="n">
-        <v>970278.0159999999</v>
+        <v>989508.992</v>
       </c>
       <c r="AR47" t="n">
-        <v>975532.992</v>
+        <v>993801.9840000001</v>
       </c>
       <c r="AS47" t="n">
-        <v>989508.992</v>
+        <v>1013174.016</v>
       </c>
       <c r="AT47" t="n">
-        <v>993801.9840000001</v>
+        <v>1024660.992</v>
       </c>
       <c r="AU47" t="n">
-        <v>1013174.016</v>
+        <v>1035630.016</v>
       </c>
       <c r="AV47" t="n">
-        <v>1024660.992</v>
+        <v>1028140.992</v>
       </c>
       <c r="AW47" t="n">
-        <v>1035630.016</v>
+        <v>1035036.992</v>
       </c>
       <c r="AX47" t="n">
-        <v>1028140.992</v>
+        <v>1028953.024</v>
       </c>
       <c r="AY47" t="n">
-        <v>1035036.992</v>
+        <v>1040860.032</v>
       </c>
       <c r="AZ47" t="n">
-        <v>1028953.024</v>
+        <v>1038886.016</v>
       </c>
       <c r="BA47" t="n">
-        <v>1040860.032</v>
+        <v>1039897.024</v>
       </c>
       <c r="BB47" t="n">
-        <v>1038886.016</v>
+        <v>1056033.984</v>
       </c>
       <c r="BC47" t="n">
-        <v>1039897.024</v>
+        <v>1072035.008</v>
       </c>
       <c r="BD47" t="n">
-        <v>1056033.984</v>
+        <v>1066750.976</v>
       </c>
       <c r="BE47" t="n">
-        <v>1072035.008</v>
+        <v>1079891.968</v>
       </c>
       <c r="BF47" t="n">
-        <v>1066750.976</v>
+        <v>1086727.936</v>
       </c>
       <c r="BG47" t="n">
-        <v>1079891.968</v>
+        <v>1100648.96</v>
       </c>
       <c r="BH47" t="n">
-        <v>1086727.936</v>
+        <v>1082832</v>
       </c>
       <c r="BI47" t="n">
-        <v>1100648.96</v>
+        <v>1087490.048</v>
       </c>
     </row>
     <row r="48">
@@ -9349,7 +9349,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>170782</v>
+        <v>190924</v>
       </c>
       <c r="C48" t="n">
         <v>190924</v>
@@ -9361,10 +9361,10 @@
         <v>190924</v>
       </c>
       <c r="F48" t="n">
-        <v>190924</v>
+        <v>206127.008</v>
       </c>
       <c r="G48" t="n">
-        <v>190924</v>
+        <v>206127.008</v>
       </c>
       <c r="H48" t="n">
         <v>206127.008</v>
@@ -9373,10 +9373,10 @@
         <v>206127.008</v>
       </c>
       <c r="J48" t="n">
-        <v>206127.008</v>
+        <v>227640.992</v>
       </c>
       <c r="K48" t="n">
-        <v>206127.008</v>
+        <v>227640.992</v>
       </c>
       <c r="L48" t="n">
         <v>227640.992</v>
@@ -9385,10 +9385,10 @@
         <v>227640.992</v>
       </c>
       <c r="N48" t="n">
-        <v>227640.992</v>
+        <v>247556</v>
       </c>
       <c r="O48" t="n">
-        <v>227640.992</v>
+        <v>247556</v>
       </c>
       <c r="P48" t="n">
         <v>247556</v>
@@ -9397,34 +9397,34 @@
         <v>247556</v>
       </c>
       <c r="R48" t="n">
-        <v>247556</v>
+        <v>267647.008</v>
       </c>
       <c r="S48" t="n">
-        <v>247556</v>
+        <v>267647.008</v>
       </c>
       <c r="T48" t="n">
-        <v>267647.008</v>
+        <v>0</v>
       </c>
       <c r="U48" t="n">
         <v>267647.008</v>
       </c>
       <c r="V48" t="n">
-        <v>0</v>
+        <v>284680</v>
       </c>
       <c r="W48" t="n">
-        <v>267647.008</v>
+        <v>284680</v>
       </c>
       <c r="X48" t="n">
-        <v>284680</v>
+        <v>0</v>
       </c>
       <c r="Y48" t="n">
         <v>284680</v>
       </c>
       <c r="Z48" t="n">
-        <v>0</v>
+        <v>297196</v>
       </c>
       <c r="AA48" t="n">
-        <v>284680</v>
+        <v>297196</v>
       </c>
       <c r="AB48" t="n">
         <v>297196</v>
@@ -9433,10 +9433,10 @@
         <v>297196</v>
       </c>
       <c r="AD48" t="n">
-        <v>297196</v>
+        <v>316844.992</v>
       </c>
       <c r="AE48" t="n">
-        <v>297196</v>
+        <v>316844.992</v>
       </c>
       <c r="AF48" t="n">
         <v>316844.992</v>
@@ -9445,10 +9445,10 @@
         <v>316844.992</v>
       </c>
       <c r="AH48" t="n">
-        <v>316844.992</v>
+        <v>336206.016</v>
       </c>
       <c r="AI48" t="n">
-        <v>316844.992</v>
+        <v>336206.016</v>
       </c>
       <c r="AJ48" t="n">
         <v>336206.016</v>
@@ -9457,10 +9457,10 @@
         <v>336206.016</v>
       </c>
       <c r="AL48" t="n">
-        <v>336206.016</v>
+        <v>352804</v>
       </c>
       <c r="AM48" t="n">
-        <v>336206.016</v>
+        <v>352804</v>
       </c>
       <c r="AN48" t="n">
         <v>352804</v>
@@ -9469,10 +9469,10 @@
         <v>352804</v>
       </c>
       <c r="AP48" t="n">
-        <v>352804</v>
+        <v>369201.984</v>
       </c>
       <c r="AQ48" t="n">
-        <v>352804</v>
+        <v>369201.984</v>
       </c>
       <c r="AR48" t="n">
         <v>369201.984</v>
@@ -9481,19 +9481,19 @@
         <v>369201.984</v>
       </c>
       <c r="AT48" t="n">
-        <v>369201.984</v>
+        <v>384787.008</v>
       </c>
       <c r="AU48" t="n">
-        <v>369201.984</v>
+        <v>384787.008</v>
       </c>
       <c r="AV48" t="n">
         <v>384787.008</v>
       </c>
       <c r="AW48" t="n">
-        <v>384787.008</v>
+        <v>397552</v>
       </c>
       <c r="AX48" t="n">
-        <v>384787.008</v>
+        <v>397552</v>
       </c>
       <c r="AY48" t="n">
         <v>397552</v>
@@ -9502,10 +9502,10 @@
         <v>397552</v>
       </c>
       <c r="BA48" t="n">
-        <v>397552</v>
+        <v>404932.992</v>
       </c>
       <c r="BB48" t="n">
-        <v>397552</v>
+        <v>404932.992</v>
       </c>
       <c r="BC48" t="n">
         <v>404932.992</v>
@@ -9514,10 +9514,10 @@
         <v>404932.992</v>
       </c>
       <c r="BE48" t="n">
-        <v>404932.992</v>
+        <v>430244.992</v>
       </c>
       <c r="BF48" t="n">
-        <v>404932.992</v>
+        <v>430244.992</v>
       </c>
       <c r="BG48" t="n">
         <v>430244.992</v>
@@ -9526,7 +9526,7 @@
         <v>430244.992</v>
       </c>
       <c r="BI48" t="n">
-        <v>430244.992</v>
+        <v>436556</v>
       </c>
     </row>
     <row r="49">
@@ -9536,184 +9536,184 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>5348</v>
+        <v>5569</v>
       </c>
       <c r="C49" t="n">
-        <v>5569</v>
+        <v>5675</v>
       </c>
       <c r="D49" t="n">
-        <v>5569</v>
+        <v>5675</v>
       </c>
       <c r="E49" t="n">
-        <v>5675</v>
+        <v>5810</v>
       </c>
       <c r="F49" t="n">
-        <v>5675</v>
+        <v>5810</v>
       </c>
       <c r="G49" t="n">
-        <v>5810</v>
+        <v>5906</v>
       </c>
       <c r="H49" t="n">
-        <v>5810</v>
+        <v>5906</v>
       </c>
       <c r="I49" t="n">
-        <v>5906</v>
+        <v>6006</v>
       </c>
       <c r="J49" t="n">
-        <v>5906</v>
+        <v>6006</v>
       </c>
       <c r="K49" t="n">
-        <v>6006</v>
+        <v>6125</v>
       </c>
       <c r="L49" t="n">
-        <v>6006</v>
+        <v>6125</v>
       </c>
       <c r="M49" t="n">
-        <v>6125</v>
+        <v>6276</v>
       </c>
       <c r="N49" t="n">
-        <v>6125</v>
+        <v>6275</v>
       </c>
       <c r="O49" t="n">
-        <v>6276</v>
+        <v>6275</v>
       </c>
       <c r="P49" t="n">
-        <v>6275</v>
+        <v>6383</v>
       </c>
       <c r="Q49" t="n">
-        <v>6275</v>
+        <v>6511</v>
       </c>
       <c r="R49" t="n">
-        <v>6383</v>
+        <v>6511</v>
       </c>
       <c r="S49" t="n">
-        <v>6511</v>
+        <v>6619</v>
       </c>
       <c r="T49" t="n">
-        <v>6511</v>
+        <v>0</v>
       </c>
       <c r="U49" t="n">
-        <v>6619</v>
+        <v>6808</v>
       </c>
       <c r="V49" t="n">
-        <v>0</v>
+        <v>6808</v>
       </c>
       <c r="W49" t="n">
-        <v>6808</v>
+        <v>6923</v>
       </c>
       <c r="X49" t="n">
-        <v>6808</v>
+        <v>0</v>
       </c>
       <c r="Y49" t="n">
-        <v>6923</v>
+        <v>7124</v>
       </c>
       <c r="Z49" t="n">
-        <v>0</v>
+        <v>7124</v>
       </c>
       <c r="AA49" t="n">
         <v>7124</v>
       </c>
       <c r="AB49" t="n">
-        <v>7124</v>
+        <v>7295</v>
       </c>
       <c r="AC49" t="n">
-        <v>7124</v>
+        <v>7295</v>
       </c>
       <c r="AD49" t="n">
-        <v>7295</v>
+        <v>7459</v>
       </c>
       <c r="AE49" t="n">
-        <v>7295</v>
+        <v>7459</v>
       </c>
       <c r="AF49" t="n">
-        <v>7459</v>
+        <v>7621</v>
       </c>
       <c r="AG49" t="n">
-        <v>7459</v>
+        <v>7809</v>
       </c>
       <c r="AH49" t="n">
-        <v>7621</v>
+        <v>7809</v>
       </c>
       <c r="AI49" t="n">
         <v>7809</v>
       </c>
       <c r="AJ49" t="n">
-        <v>7809</v>
+        <v>7920</v>
       </c>
       <c r="AK49" t="n">
-        <v>7809</v>
+        <v>8179</v>
       </c>
       <c r="AL49" t="n">
-        <v>7920</v>
+        <v>8179</v>
       </c>
       <c r="AM49" t="n">
         <v>8179</v>
       </c>
       <c r="AN49" t="n">
-        <v>8179</v>
+        <v>8339</v>
       </c>
       <c r="AO49" t="n">
-        <v>8179</v>
+        <v>8339</v>
       </c>
       <c r="AP49" t="n">
-        <v>8339</v>
+        <v>8602</v>
       </c>
       <c r="AQ49" t="n">
-        <v>8339</v>
+        <v>8603</v>
       </c>
       <c r="AR49" t="n">
-        <v>8602</v>
+        <v>8736</v>
       </c>
       <c r="AS49" t="n">
-        <v>8603</v>
+        <v>8736</v>
       </c>
       <c r="AT49" t="n">
-        <v>8736</v>
+        <v>9004</v>
       </c>
       <c r="AU49" t="n">
-        <v>8736</v>
+        <v>9003</v>
       </c>
       <c r="AV49" t="n">
-        <v>9004</v>
+        <v>9140</v>
       </c>
       <c r="AW49" t="n">
-        <v>9003</v>
+        <v>9431</v>
       </c>
       <c r="AX49" t="n">
-        <v>9140</v>
+        <v>9431</v>
       </c>
       <c r="AY49" t="n">
         <v>9431</v>
       </c>
       <c r="AZ49" t="n">
-        <v>9431</v>
+        <v>9573</v>
       </c>
       <c r="BA49" t="n">
-        <v>9431</v>
+        <v>9876</v>
       </c>
       <c r="BB49" t="n">
-        <v>9573</v>
+        <v>9876</v>
       </c>
       <c r="BC49" t="n">
         <v>9876</v>
       </c>
       <c r="BD49" t="n">
-        <v>9876</v>
+        <v>9937</v>
       </c>
       <c r="BE49" t="n">
-        <v>9876</v>
+        <v>10256</v>
       </c>
       <c r="BF49" t="n">
-        <v>9937</v>
+        <v>10256</v>
       </c>
       <c r="BG49" t="n">
-        <v>10256</v>
+        <v>10255</v>
       </c>
       <c r="BH49" t="n">
-        <v>10256</v>
+        <v>10319</v>
       </c>
       <c r="BI49" t="n">
-        <v>10255</v>
+        <v>10319</v>
       </c>
     </row>
     <row r="50">
@@ -9910,184 +9910,184 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>323780.992</v>
+        <v>320719.008</v>
       </c>
       <c r="C51" t="n">
-        <v>315009.984</v>
+        <v>328088</v>
       </c>
       <c r="D51" t="n">
-        <v>320719.008</v>
+        <v>358414.016</v>
       </c>
       <c r="E51" t="n">
-        <v>328088</v>
+        <v>336094.016</v>
       </c>
       <c r="F51" t="n">
-        <v>358414.016</v>
+        <v>320804</v>
       </c>
       <c r="G51" t="n">
-        <v>336094.016</v>
+        <v>317448</v>
       </c>
       <c r="H51" t="n">
-        <v>320804</v>
+        <v>374627.008</v>
       </c>
       <c r="I51" t="n">
-        <v>317448</v>
+        <v>373088</v>
       </c>
       <c r="J51" t="n">
-        <v>374627.008</v>
+        <v>351572.992</v>
       </c>
       <c r="K51" t="n">
-        <v>373088</v>
+        <v>349716</v>
       </c>
       <c r="L51" t="n">
-        <v>351572.992</v>
+        <v>395982.016</v>
       </c>
       <c r="M51" t="n">
-        <v>349716</v>
+        <v>393615.008</v>
       </c>
       <c r="N51" t="n">
-        <v>395982.016</v>
+        <v>373492</v>
       </c>
       <c r="O51" t="n">
-        <v>393615.008</v>
+        <v>371207.008</v>
       </c>
       <c r="P51" t="n">
-        <v>373492</v>
+        <v>422932.992</v>
       </c>
       <c r="Q51" t="n">
-        <v>371207.008</v>
+        <v>422932.992</v>
       </c>
       <c r="R51" t="n">
-        <v>422932.992</v>
+        <v>400339.008</v>
       </c>
       <c r="S51" t="n">
-        <v>422932.992</v>
+        <v>400339.008</v>
       </c>
       <c r="T51" t="n">
-        <v>400339.008</v>
+        <v>0</v>
       </c>
       <c r="U51" t="n">
-        <v>400339.008</v>
+        <v>442148.992</v>
       </c>
       <c r="V51" t="n">
-        <v>0</v>
+        <v>423383.008</v>
       </c>
       <c r="W51" t="n">
-        <v>442148.992</v>
+        <v>423383.008</v>
       </c>
       <c r="X51" t="n">
-        <v>423383.008</v>
+        <v>0</v>
       </c>
       <c r="Y51" t="n">
-        <v>423383.008</v>
+        <v>451200.992</v>
       </c>
       <c r="Z51" t="n">
-        <v>0</v>
+        <v>436696</v>
       </c>
       <c r="AA51" t="n">
-        <v>451200.992</v>
+        <v>436696</v>
       </c>
       <c r="AB51" t="n">
-        <v>436696</v>
+        <v>484193.984</v>
       </c>
       <c r="AC51" t="n">
-        <v>436696</v>
+        <v>484193.984</v>
       </c>
       <c r="AD51" t="n">
-        <v>484193.984</v>
+        <v>462424</v>
       </c>
       <c r="AE51" t="n">
-        <v>484193.984</v>
+        <v>462424</v>
       </c>
       <c r="AF51" t="n">
-        <v>462424</v>
+        <v>508900.992</v>
       </c>
       <c r="AG51" t="n">
-        <v>462424</v>
+        <v>508900.992</v>
       </c>
       <c r="AH51" t="n">
-        <v>508900.992</v>
+        <v>487360</v>
       </c>
       <c r="AI51" t="n">
-        <v>508900.992</v>
+        <v>487360</v>
       </c>
       <c r="AJ51" t="n">
-        <v>487360</v>
+        <v>526230.0159999999</v>
       </c>
       <c r="AK51" t="n">
-        <v>487360</v>
+        <v>526230.0159999999</v>
       </c>
       <c r="AL51" t="n">
-        <v>526230.0159999999</v>
+        <v>507345.984</v>
       </c>
       <c r="AM51" t="n">
-        <v>526230.0159999999</v>
+        <v>507345.984</v>
       </c>
       <c r="AN51" t="n">
-        <v>507345.984</v>
+        <v>545488</v>
       </c>
       <c r="AO51" t="n">
-        <v>507345.984</v>
+        <v>545488</v>
       </c>
       <c r="AP51" t="n">
-        <v>545488</v>
+        <v>528116</v>
       </c>
       <c r="AQ51" t="n">
-        <v>545488</v>
+        <v>528776</v>
       </c>
       <c r="AR51" t="n">
-        <v>528116</v>
+        <v>562430.0159999999</v>
       </c>
       <c r="AS51" t="n">
-        <v>528776</v>
+        <v>562430.0159999999</v>
       </c>
       <c r="AT51" t="n">
-        <v>562430.0159999999</v>
+        <v>545828.992</v>
       </c>
       <c r="AU51" t="n">
-        <v>562430.0159999999</v>
+        <v>545830.0159999999</v>
       </c>
       <c r="AV51" t="n">
-        <v>545828.992</v>
+        <v>572633.024</v>
       </c>
       <c r="AW51" t="n">
-        <v>545830.0159999999</v>
+        <v>559868.032</v>
       </c>
       <c r="AX51" t="n">
-        <v>572633.024</v>
+        <v>558819.008</v>
       </c>
       <c r="AY51" t="n">
-        <v>559868.032</v>
+        <v>558819.008</v>
       </c>
       <c r="AZ51" t="n">
-        <v>558819.008</v>
+        <v>571164.992</v>
       </c>
       <c r="BA51" t="n">
-        <v>558819.008</v>
+        <v>563784</v>
       </c>
       <c r="BB51" t="n">
-        <v>571164.992</v>
+        <v>562664</v>
       </c>
       <c r="BC51" t="n">
-        <v>563784</v>
+        <v>562664</v>
       </c>
       <c r="BD51" t="n">
-        <v>562664</v>
+        <v>621908.992</v>
       </c>
       <c r="BE51" t="n">
-        <v>562664</v>
+        <v>604468.992</v>
       </c>
       <c r="BF51" t="n">
-        <v>621908.992</v>
+        <v>603332.992</v>
       </c>
       <c r="BG51" t="n">
-        <v>604468.992</v>
+        <v>603332.992</v>
       </c>
       <c r="BH51" t="n">
-        <v>603332.992</v>
+        <v>612296</v>
       </c>
       <c r="BI51" t="n">
-        <v>603332.992</v>
+        <v>605985.024</v>
       </c>
     </row>
     <row r="52">
@@ -10106,175 +10106,175 @@
         <v>0</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>40342</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>39728</v>
       </c>
       <c r="G52" t="n">
-        <v>40342</v>
+        <v>54334</v>
       </c>
       <c r="H52" t="n">
-        <v>39728</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>54334</v>
+        <v>9759</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>19485</v>
       </c>
       <c r="K52" t="n">
-        <v>9759</v>
+        <v>37138</v>
       </c>
       <c r="L52" t="n">
-        <v>19485</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>37138</v>
+        <v>16087</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
+        <v>19871</v>
       </c>
       <c r="O52" t="n">
-        <v>16087</v>
+        <v>33864</v>
       </c>
       <c r="P52" t="n">
-        <v>19871</v>
+        <v>0</v>
       </c>
       <c r="Q52" t="n">
-        <v>33864</v>
+        <v>11290</v>
       </c>
       <c r="R52" t="n">
-        <v>0</v>
+        <v>24001</v>
       </c>
       <c r="S52" t="n">
-        <v>11290</v>
+        <v>31029</v>
       </c>
       <c r="T52" t="n">
-        <v>24001</v>
+        <v>0</v>
       </c>
       <c r="U52" t="n">
-        <v>31029</v>
+        <v>8174</v>
       </c>
       <c r="V52" t="n">
-        <v>0</v>
+        <v>12121</v>
       </c>
       <c r="W52" t="n">
-        <v>8174</v>
+        <v>23905</v>
       </c>
       <c r="X52" t="n">
-        <v>12121</v>
+        <v>0</v>
       </c>
       <c r="Y52" t="n">
-        <v>23905</v>
+        <v>9743</v>
       </c>
       <c r="Z52" t="n">
-        <v>0</v>
+        <v>22520</v>
       </c>
       <c r="AA52" t="n">
-        <v>9743</v>
+        <v>35820</v>
       </c>
       <c r="AB52" t="n">
-        <v>22520</v>
+        <v>0</v>
       </c>
       <c r="AC52" t="n">
-        <v>35820</v>
+        <v>12432</v>
       </c>
       <c r="AD52" t="n">
-        <v>0</v>
+        <v>23355</v>
       </c>
       <c r="AE52" t="n">
-        <v>12432</v>
+        <v>37785</v>
       </c>
       <c r="AF52" t="n">
-        <v>23355</v>
+        <v>0</v>
       </c>
       <c r="AG52" t="n">
-        <v>37785</v>
+        <v>7341</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>16865</v>
       </c>
       <c r="AI52" t="n">
-        <v>7341</v>
+        <v>26394</v>
       </c>
       <c r="AJ52" t="n">
-        <v>16865</v>
+        <v>0</v>
       </c>
       <c r="AK52" t="n">
-        <v>26394</v>
+        <v>11368</v>
       </c>
       <c r="AL52" t="n">
-        <v>0</v>
+        <v>20925</v>
       </c>
       <c r="AM52" t="n">
-        <v>11368</v>
+        <v>32975</v>
       </c>
       <c r="AN52" t="n">
-        <v>20925</v>
+        <v>0</v>
       </c>
       <c r="AO52" t="n">
-        <v>32975</v>
+        <v>10943</v>
       </c>
       <c r="AP52" t="n">
-        <v>0</v>
+        <v>17400</v>
       </c>
       <c r="AQ52" t="n">
-        <v>10943</v>
+        <v>30027</v>
       </c>
       <c r="AR52" t="n">
-        <v>17400</v>
+        <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>30027</v>
+        <v>11993</v>
       </c>
       <c r="AT52" t="n">
-        <v>0</v>
+        <v>21332</v>
       </c>
       <c r="AU52" t="n">
-        <v>11993</v>
+        <v>30995</v>
       </c>
       <c r="AV52" t="n">
-        <v>21332</v>
+        <v>0</v>
       </c>
       <c r="AW52" t="n">
-        <v>30995</v>
+        <v>5556</v>
       </c>
       <c r="AX52" t="n">
-        <v>0</v>
+        <v>8459</v>
       </c>
       <c r="AY52" t="n">
-        <v>5556</v>
+        <v>16203</v>
       </c>
       <c r="AZ52" t="n">
-        <v>8459</v>
+        <v>0</v>
       </c>
       <c r="BA52" t="n">
-        <v>16203</v>
+        <v>5822</v>
       </c>
       <c r="BB52" t="n">
-        <v>0</v>
+        <v>18446</v>
       </c>
       <c r="BC52" t="n">
-        <v>5822</v>
+        <v>59804</v>
       </c>
       <c r="BD52" t="n">
-        <v>18446</v>
+        <v>0</v>
       </c>
       <c r="BE52" t="n">
-        <v>59804</v>
+        <v>4950</v>
       </c>
       <c r="BF52" t="n">
-        <v>0</v>
+        <v>12922</v>
       </c>
       <c r="BG52" t="n">
-        <v>4950</v>
+        <v>26844</v>
       </c>
       <c r="BH52" t="n">
-        <v>12922</v>
+        <v>0</v>
       </c>
       <c r="BI52" t="n">
-        <v>26844</v>
+        <v>4658</v>
       </c>
     </row>
     <row r="53">
@@ -10293,163 +10293,163 @@
         <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>21519</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>22066</v>
       </c>
       <c r="G53" t="n">
-        <v>21519</v>
+        <v>19922</v>
       </c>
       <c r="H53" t="n">
-        <v>22066</v>
+        <v>18303</v>
       </c>
       <c r="I53" t="n">
-        <v>19922</v>
+        <v>18613</v>
       </c>
       <c r="J53" t="n">
-        <v>18303</v>
+        <v>17185</v>
       </c>
       <c r="K53" t="n">
-        <v>18613</v>
+        <v>22842</v>
       </c>
       <c r="L53" t="n">
-        <v>17185</v>
+        <v>22680</v>
       </c>
       <c r="M53" t="n">
-        <v>22842</v>
+        <v>21263</v>
       </c>
       <c r="N53" t="n">
-        <v>22680</v>
+        <v>26033</v>
       </c>
       <c r="O53" t="n">
-        <v>21263</v>
+        <v>26266</v>
       </c>
       <c r="P53" t="n">
-        <v>26033</v>
+        <v>27304</v>
       </c>
       <c r="Q53" t="n">
-        <v>26266</v>
+        <v>22558</v>
       </c>
       <c r="R53" t="n">
-        <v>27304</v>
+        <v>21245</v>
       </c>
       <c r="S53" t="n">
-        <v>22558</v>
+        <v>21387</v>
       </c>
       <c r="T53" t="n">
-        <v>21245</v>
+        <v>0</v>
       </c>
       <c r="U53" t="n">
-        <v>21387</v>
+        <v>24678</v>
       </c>
       <c r="V53" t="n">
-        <v>0</v>
+        <v>27918</v>
       </c>
       <c r="W53" t="n">
-        <v>24678</v>
+        <v>30985</v>
       </c>
       <c r="X53" t="n">
-        <v>27918</v>
+        <v>0</v>
       </c>
       <c r="Y53" t="n">
-        <v>30985</v>
+        <v>48334</v>
       </c>
       <c r="Z53" t="n">
-        <v>0</v>
+        <v>43657</v>
       </c>
       <c r="AA53" t="n">
-        <v>48334</v>
+        <v>59656</v>
       </c>
       <c r="AB53" t="n">
-        <v>43657</v>
+        <v>62742</v>
       </c>
       <c r="AC53" t="n">
-        <v>59656</v>
+        <v>58483</v>
       </c>
       <c r="AD53" t="n">
-        <v>62742</v>
+        <v>50282</v>
       </c>
       <c r="AE53" t="n">
-        <v>58483</v>
+        <v>52715</v>
       </c>
       <c r="AF53" t="n">
-        <v>50282</v>
+        <v>49535</v>
       </c>
       <c r="AG53" t="n">
-        <v>52715</v>
+        <v>48034</v>
       </c>
       <c r="AH53" t="n">
-        <v>49535</v>
+        <v>50771</v>
       </c>
       <c r="AI53" t="n">
-        <v>48034</v>
+        <v>50913</v>
       </c>
       <c r="AJ53" t="n">
-        <v>50771</v>
+        <v>48009</v>
       </c>
       <c r="AK53" t="n">
-        <v>50913</v>
+        <v>48154</v>
       </c>
       <c r="AL53" t="n">
-        <v>48009</v>
+        <v>52813</v>
       </c>
       <c r="AM53" t="n">
-        <v>48154</v>
+        <v>51242</v>
       </c>
       <c r="AN53" t="n">
-        <v>52813</v>
+        <v>53110</v>
       </c>
       <c r="AO53" t="n">
-        <v>51242</v>
+        <v>52704</v>
       </c>
       <c r="AP53" t="n">
-        <v>53110</v>
+        <v>52213</v>
       </c>
       <c r="AQ53" t="n">
-        <v>52704</v>
+        <v>52901</v>
       </c>
       <c r="AR53" t="n">
-        <v>52213</v>
+        <v>53434</v>
       </c>
       <c r="AS53" t="n">
-        <v>52901</v>
+        <v>60813</v>
       </c>
       <c r="AT53" t="n">
-        <v>53434</v>
+        <v>63709</v>
       </c>
       <c r="AU53" t="n">
-        <v>60813</v>
+        <v>65015</v>
       </c>
       <c r="AV53" t="n">
-        <v>63709</v>
+        <v>61581</v>
       </c>
       <c r="AW53" t="n">
-        <v>65015</v>
+        <v>62630</v>
       </c>
       <c r="AX53" t="n">
-        <v>61581</v>
+        <v>54692</v>
       </c>
       <c r="AY53" t="n">
-        <v>62630</v>
+        <v>58855</v>
       </c>
       <c r="AZ53" t="n">
-        <v>54692</v>
+        <v>60596</v>
       </c>
       <c r="BA53" t="n">
-        <v>58855</v>
+        <v>55482</v>
       </c>
       <c r="BB53" t="n">
-        <v>60596</v>
+        <v>60115</v>
       </c>
       <c r="BC53" t="n">
-        <v>55482</v>
+        <v>34758</v>
       </c>
       <c r="BD53" t="n">
-        <v>60115</v>
+        <v>29972</v>
       </c>
       <c r="BE53" t="n">
-        <v>34758</v>
+        <v>29972</v>
       </c>
       <c r="BF53" t="n">
         <v>29972</v>
@@ -11032,26 +11032,22 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C57" t="n">
-        <v>35</v>
+        <v>11407</v>
       </c>
       <c r="D57" t="n">
-        <v>43</v>
+        <v>3797</v>
       </c>
       <c r="E57" t="n">
-        <v>11407</v>
+        <v>3083</v>
       </c>
       <c r="F57" t="n">
-        <v>3797</v>
-      </c>
-      <c r="G57" t="n">
-        <v>3083</v>
-      </c>
-      <c r="H57" t="n">
         <v>3286</v>
       </c>
+      <c r="G57" t="inlineStr"/>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
@@ -11113,26 +11109,22 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-5</v>
+        <v>-7</v>
       </c>
       <c r="C58" t="n">
-        <v>-4</v>
+        <v>16</v>
       </c>
       <c r="D58" t="n">
-        <v>-7</v>
+        <v>-541</v>
       </c>
       <c r="E58" t="n">
-        <v>16</v>
+        <v>-439</v>
       </c>
       <c r="F58" t="n">
-        <v>-541</v>
-      </c>
-      <c r="G58" t="n">
-        <v>-439</v>
-      </c>
-      <c r="H58" t="n">
         <v>-461</v>
       </c>
+      <c r="G58" t="inlineStr"/>
+      <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
@@ -11194,145 +11186,145 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C59" t="n">
-        <v>31</v>
+        <v>11423</v>
       </c>
       <c r="D59" t="n">
-        <v>36</v>
+        <v>3256</v>
       </c>
       <c r="E59" t="n">
-        <v>11423</v>
+        <v>2644</v>
       </c>
       <c r="F59" t="n">
-        <v>3256</v>
+        <v>2825</v>
       </c>
       <c r="G59" t="n">
-        <v>2644</v>
+        <v>529</v>
       </c>
       <c r="H59" t="n">
-        <v>2825</v>
+        <v>2527</v>
       </c>
       <c r="I59" t="n">
-        <v>529</v>
+        <v>2527</v>
       </c>
       <c r="J59" t="n">
-        <v>2527</v>
+        <v>3051</v>
       </c>
       <c r="K59" t="n">
-        <v>2527</v>
+        <v>2866</v>
       </c>
       <c r="L59" t="n">
-        <v>3051</v>
+        <v>2746</v>
       </c>
       <c r="M59" t="n">
-        <v>2866</v>
+        <v>3862</v>
       </c>
       <c r="N59" t="n">
-        <v>2746</v>
+        <v>3217</v>
       </c>
       <c r="O59" t="n">
-        <v>3862</v>
+        <v>612</v>
       </c>
       <c r="P59" t="n">
-        <v>3217</v>
+        <v>2444</v>
       </c>
       <c r="Q59" t="n">
-        <v>612</v>
+        <v>18</v>
       </c>
       <c r="R59" t="n">
-        <v>2444</v>
+        <v>73</v>
       </c>
       <c r="S59" t="n">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="T59" t="n">
-        <v>73</v>
+        <v>-158</v>
       </c>
       <c r="U59" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="V59" t="n">
-        <v>-158</v>
+        <v>57</v>
       </c>
       <c r="W59" t="n">
+        <v>51</v>
+      </c>
+      <c r="X59" t="n">
+        <v>-180</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>47</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>47</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>46</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>49</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>57</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>53</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>52</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>77</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>77</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>76</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>80</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>75</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>85</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>76</v>
+      </c>
+      <c r="AQ59" t="n">
         <v>72</v>
       </c>
-      <c r="X59" t="n">
-        <v>57</v>
-      </c>
-      <c r="Y59" t="n">
+      <c r="AR59" t="n">
         <v>51</v>
       </c>
-      <c r="Z59" t="n">
-        <v>-180</v>
-      </c>
-      <c r="AA59" t="n">
-        <v>47</v>
-      </c>
-      <c r="AB59" t="n">
-        <v>47</v>
-      </c>
-      <c r="AC59" t="n">
-        <v>46</v>
-      </c>
-      <c r="AD59" t="n">
-        <v>49</v>
-      </c>
-      <c r="AE59" t="n">
-        <v>57</v>
-      </c>
-      <c r="AF59" t="n">
-        <v>53</v>
-      </c>
-      <c r="AG59" t="n">
-        <v>52</v>
-      </c>
-      <c r="AH59" t="n">
-        <v>77</v>
-      </c>
-      <c r="AI59" t="n">
-        <v>77</v>
-      </c>
-      <c r="AJ59" t="n">
-        <v>76</v>
-      </c>
-      <c r="AK59" t="n">
-        <v>80</v>
-      </c>
-      <c r="AL59" t="n">
-        <v>75</v>
-      </c>
-      <c r="AM59" t="n">
-        <v>79</v>
-      </c>
-      <c r="AN59" t="n">
-        <v>80</v>
-      </c>
-      <c r="AO59" t="n">
-        <v>80</v>
-      </c>
-      <c r="AP59" t="n">
-        <v>85</v>
-      </c>
-      <c r="AQ59" t="n">
-        <v>81</v>
-      </c>
-      <c r="AR59" t="n">
-        <v>76</v>
-      </c>
       <c r="AS59" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AT59" t="n">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="AU59" t="n">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="AV59" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AW59" t="n">
         <v>0</v>
@@ -11396,100 +11388,100 @@
         <v>0</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>-5300</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>-1466</v>
       </c>
       <c r="I60" t="n">
-        <v>-5300</v>
+        <v>-1466</v>
       </c>
       <c r="J60" t="n">
-        <v>-1466</v>
+        <v>-2260</v>
       </c>
       <c r="K60" t="n">
-        <v>-1466</v>
+        <v>-1950</v>
       </c>
       <c r="L60" t="n">
-        <v>-2260</v>
+        <v>-1868</v>
       </c>
       <c r="M60" t="n">
-        <v>-1950</v>
+        <v>-1935</v>
       </c>
       <c r="N60" t="n">
-        <v>-1868</v>
+        <v>-1989</v>
       </c>
       <c r="O60" t="n">
-        <v>-1935</v>
+        <v>-2425</v>
       </c>
       <c r="P60" t="n">
-        <v>-1989</v>
+        <v>-1853</v>
       </c>
       <c r="Q60" t="n">
-        <v>-2425</v>
+        <v>-3</v>
       </c>
       <c r="R60" t="n">
-        <v>-1853</v>
+        <v>-10</v>
       </c>
       <c r="S60" t="n">
-        <v>-3</v>
+        <v>-10</v>
       </c>
       <c r="T60" t="n">
-        <v>-10</v>
+        <v>23</v>
       </c>
       <c r="U60" t="n">
         <v>-10</v>
       </c>
       <c r="V60" t="n">
-        <v>23</v>
+        <v>-8</v>
       </c>
       <c r="W60" t="n">
-        <v>-10</v>
+        <v>-8</v>
       </c>
       <c r="X60" t="n">
-        <v>-8</v>
+        <v>26</v>
       </c>
       <c r="Y60" t="n">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="Z60" t="n">
-        <v>26</v>
+        <v>-7</v>
       </c>
       <c r="AA60" t="n">
         <v>-7</v>
       </c>
       <c r="AB60" t="n">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="AC60" t="n">
-        <v>-7</v>
+        <v>-8</v>
       </c>
       <c r="AD60" t="n">
-        <v>-6</v>
+        <v>-2</v>
       </c>
       <c r="AE60" t="n">
-        <v>-8</v>
+        <v>-3</v>
       </c>
       <c r="AF60" t="n">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="AG60" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AH60" t="n">
-        <v>1</v>
+        <v>-4</v>
       </c>
       <c r="AI60" t="n">
         <v>-4</v>
       </c>
       <c r="AJ60" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="AK60" t="n">
         <v>-4</v>
       </c>
       <c r="AL60" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="AM60" t="n">
         <v>-4</v>
@@ -11504,22 +11496,22 @@
         <v>-4</v>
       </c>
       <c r="AQ60" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>-3</v>
+      </c>
+      <c r="AS60" t="n">
         <v>-4</v>
       </c>
-      <c r="AR60" t="n">
-        <v>-4</v>
-      </c>
-      <c r="AS60" t="n">
-        <v>-3</v>
-      </c>
       <c r="AT60" t="n">
-        <v>-3</v>
+        <v>-1</v>
       </c>
       <c r="AU60" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="AV60" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AW60" t="n">
         <v>0</v>
@@ -11568,145 +11560,145 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="C61" t="n">
-        <v>31</v>
+        <v>11423</v>
       </c>
       <c r="D61" t="n">
-        <v>36</v>
+        <v>3256</v>
       </c>
       <c r="E61" t="n">
-        <v>11423</v>
+        <v>2644</v>
       </c>
       <c r="F61" t="n">
-        <v>3256</v>
+        <v>2825</v>
       </c>
       <c r="G61" t="n">
-        <v>2644</v>
+        <v>-4771</v>
       </c>
       <c r="H61" t="n">
-        <v>2825</v>
+        <v>1061</v>
       </c>
       <c r="I61" t="n">
-        <v>-4771</v>
+        <v>1061</v>
       </c>
       <c r="J61" t="n">
-        <v>1061</v>
+        <v>791</v>
       </c>
       <c r="K61" t="n">
-        <v>1061</v>
+        <v>916</v>
       </c>
       <c r="L61" t="n">
-        <v>791</v>
+        <v>878</v>
       </c>
       <c r="M61" t="n">
-        <v>916</v>
+        <v>1927</v>
       </c>
       <c r="N61" t="n">
-        <v>878</v>
+        <v>1228</v>
       </c>
       <c r="O61" t="n">
-        <v>1927</v>
+        <v>-1813</v>
       </c>
       <c r="P61" t="n">
-        <v>1228</v>
+        <v>591</v>
       </c>
       <c r="Q61" t="n">
-        <v>-1813</v>
+        <v>15</v>
       </c>
       <c r="R61" t="n">
-        <v>591</v>
+        <v>63</v>
       </c>
       <c r="S61" t="n">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="T61" t="n">
-        <v>63</v>
+        <v>-135</v>
       </c>
       <c r="U61" t="n">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="V61" t="n">
-        <v>-135</v>
+        <v>49</v>
       </c>
       <c r="W61" t="n">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="X61" t="n">
+        <v>-154</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>40</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>40</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>39</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>43</v>
+      </c>
+      <c r="AC61" t="n">
         <v>49</v>
       </c>
-      <c r="Y61" t="n">
-        <v>43</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>-154</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>40</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>40</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>39</v>
-      </c>
       <c r="AD61" t="n">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="AE61" t="n">
         <v>49</v>
       </c>
       <c r="AF61" t="n">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="AG61" t="n">
-        <v>49</v>
+        <v>73</v>
       </c>
       <c r="AH61" t="n">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="AI61" t="n">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="AJ61" t="n">
         <v>72</v>
       </c>
       <c r="AK61" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL61" t="n">
         <v>76</v>
       </c>
-      <c r="AL61" t="n">
+      <c r="AM61" t="n">
+        <v>76</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>81</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>77</v>
+      </c>
+      <c r="AP61" t="n">
         <v>72</v>
       </c>
-      <c r="AM61" t="n">
-        <v>75</v>
-      </c>
-      <c r="AN61" t="n">
-        <v>76</v>
-      </c>
-      <c r="AO61" t="n">
-        <v>76</v>
-      </c>
-      <c r="AP61" t="n">
-        <v>81</v>
-      </c>
       <c r="AQ61" t="n">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="AR61" t="n">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="AS61" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AT61" t="n">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="AU61" t="n">
-        <v>67</v>
+        <v>0</v>
       </c>
       <c r="AV61" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="AW61" t="n">
         <v>0</v>
@@ -11770,13 +11762,13 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>-8917</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>-8917</v>
+        <v>0</v>
       </c>
       <c r="J62" t="n">
         <v>0</v>
@@ -11785,25 +11777,25 @@
         <v>0</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>-16456</v>
       </c>
       <c r="M62" t="n">
         <v>0</v>
       </c>
       <c r="N62" t="n">
-        <v>-16456</v>
+        <v>0</v>
       </c>
       <c r="O62" t="n">
         <v>0</v>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>-35976</v>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
       </c>
       <c r="R62" t="n">
-        <v>-35976</v>
+        <v>0</v>
       </c>
       <c r="S62" t="n">
         <v>0</v>
@@ -11942,184 +11934,184 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-589</v>
+        <v>-461</v>
       </c>
       <c r="C63" t="n">
-        <v>-484</v>
+        <v>-64694</v>
       </c>
       <c r="D63" t="n">
-        <v>-461</v>
+        <v>-15478</v>
       </c>
       <c r="E63" t="n">
-        <v>-64694</v>
+        <v>-14814</v>
       </c>
       <c r="F63" t="n">
-        <v>-15478</v>
+        <v>-15506</v>
       </c>
       <c r="G63" t="n">
-        <v>-14814</v>
+        <v>-37452</v>
       </c>
       <c r="H63" t="n">
-        <v>-15506</v>
+        <v>-15956</v>
       </c>
       <c r="I63" t="n">
-        <v>-37452</v>
+        <v>-15956</v>
       </c>
       <c r="J63" t="n">
-        <v>-15956</v>
+        <v>-15213</v>
       </c>
       <c r="K63" t="n">
-        <v>-15956</v>
+        <v>-17294</v>
       </c>
       <c r="L63" t="n">
-        <v>-15213</v>
+        <v>-27472</v>
       </c>
       <c r="M63" t="n">
-        <v>-17294</v>
+        <v>-17068</v>
       </c>
       <c r="N63" t="n">
-        <v>-27472</v>
+        <v>-18144</v>
       </c>
       <c r="O63" t="n">
-        <v>-17068</v>
+        <v>-14569</v>
       </c>
       <c r="P63" t="n">
-        <v>-18144</v>
+        <v>-39803</v>
       </c>
       <c r="Q63" t="n">
-        <v>-14569</v>
+        <v>-733</v>
       </c>
       <c r="R63" t="n">
-        <v>-39803</v>
+        <v>-973</v>
       </c>
       <c r="S63" t="n">
-        <v>-733</v>
+        <v>-675</v>
       </c>
       <c r="T63" t="n">
-        <v>-973</v>
+        <v>2381</v>
       </c>
       <c r="U63" t="n">
-        <v>-675</v>
+        <v>-632</v>
       </c>
       <c r="V63" t="n">
-        <v>2381</v>
+        <v>-1062</v>
       </c>
       <c r="W63" t="n">
-        <v>-632</v>
+        <v>-708</v>
       </c>
       <c r="X63" t="n">
-        <v>-1062</v>
+        <v>2402</v>
       </c>
       <c r="Y63" t="n">
-        <v>-708</v>
+        <v>-495</v>
       </c>
       <c r="Z63" t="n">
-        <v>2402</v>
+        <v>-827</v>
       </c>
       <c r="AA63" t="n">
-        <v>-495</v>
+        <v>-719</v>
       </c>
       <c r="AB63" t="n">
-        <v>-827</v>
+        <v>-1017</v>
       </c>
       <c r="AC63" t="n">
-        <v>-719</v>
+        <v>-707</v>
       </c>
       <c r="AD63" t="n">
-        <v>-1017</v>
+        <v>-807</v>
       </c>
       <c r="AE63" t="n">
-        <v>-707</v>
+        <v>-757</v>
       </c>
       <c r="AF63" t="n">
-        <v>-807</v>
+        <v>-850</v>
       </c>
       <c r="AG63" t="n">
-        <v>-757</v>
+        <v>-857</v>
       </c>
       <c r="AH63" t="n">
-        <v>-850</v>
+        <v>-948</v>
       </c>
       <c r="AI63" t="n">
-        <v>-857</v>
+        <v>-4329</v>
       </c>
       <c r="AJ63" t="n">
-        <v>-948</v>
+        <v>-617</v>
       </c>
       <c r="AK63" t="n">
-        <v>-4329</v>
+        <v>-967</v>
       </c>
       <c r="AL63" t="n">
-        <v>-617</v>
+        <v>-961</v>
       </c>
       <c r="AM63" t="n">
-        <v>-967</v>
+        <v>-895</v>
       </c>
       <c r="AN63" t="n">
-        <v>-961</v>
+        <v>-936</v>
       </c>
       <c r="AO63" t="n">
-        <v>-895</v>
+        <v>-910</v>
       </c>
       <c r="AP63" t="n">
-        <v>-936</v>
+        <v>-1002</v>
       </c>
       <c r="AQ63" t="n">
-        <v>-910</v>
+        <v>-935</v>
       </c>
       <c r="AR63" t="n">
-        <v>-1002</v>
+        <v>-958</v>
       </c>
       <c r="AS63" t="n">
-        <v>-935</v>
+        <v>-1433</v>
       </c>
       <c r="AT63" t="n">
-        <v>-958</v>
+        <v>-1156</v>
       </c>
       <c r="AU63" t="n">
-        <v>-1433</v>
+        <v>-887</v>
       </c>
       <c r="AV63" t="n">
-        <v>-1156</v>
+        <v>-1572</v>
       </c>
       <c r="AW63" t="n">
-        <v>-887</v>
+        <v>-784</v>
       </c>
       <c r="AX63" t="n">
-        <v>-1572</v>
+        <v>-874</v>
       </c>
       <c r="AY63" t="n">
-        <v>-784</v>
+        <v>-1034</v>
       </c>
       <c r="AZ63" t="n">
-        <v>-874</v>
+        <v>-1082</v>
       </c>
       <c r="BA63" t="n">
-        <v>-1034</v>
+        <v>-1096</v>
       </c>
       <c r="BB63" t="n">
-        <v>-1082</v>
+        <v>-1059</v>
       </c>
       <c r="BC63" t="n">
-        <v>-1096</v>
+        <v>-1274</v>
       </c>
       <c r="BD63" t="n">
-        <v>-1059</v>
+        <v>-2292</v>
       </c>
       <c r="BE63" t="n">
-        <v>-1274</v>
+        <v>-1246</v>
       </c>
       <c r="BF63" t="n">
-        <v>-2292</v>
+        <v>-2418</v>
       </c>
       <c r="BG63" t="n">
-        <v>-1246</v>
+        <v>-946</v>
       </c>
       <c r="BH63" t="n">
-        <v>-2418</v>
+        <v>-799</v>
       </c>
       <c r="BI63" t="n">
-        <v>-946</v>
+        <v>-577</v>
       </c>
     </row>
     <row r="64">
@@ -12134,8 +12126,12 @@
       <c r="E64" t="inlineStr"/>
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
+      <c r="H64" t="n">
+        <v>0</v>
+      </c>
+      <c r="I64" t="n">
+        <v>0</v>
+      </c>
       <c r="J64" t="n">
         <v>0</v>
       </c>
@@ -12300,67 +12296,67 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>2055</v>
+        <v>-25</v>
       </c>
       <c r="C65" t="n">
-        <v>25</v>
+        <v>419956.992</v>
       </c>
       <c r="D65" t="n">
-        <v>-25</v>
+        <v>95704</v>
       </c>
       <c r="E65" t="n">
-        <v>419956.992</v>
+        <v>92079</v>
       </c>
       <c r="F65" t="n">
-        <v>95704</v>
+        <v>91469</v>
       </c>
       <c r="G65" t="n">
-        <v>92079</v>
+        <v>-254036.992</v>
       </c>
       <c r="H65" t="n">
-        <v>91469</v>
+        <v>5146</v>
       </c>
       <c r="I65" t="n">
-        <v>-254036.992</v>
+        <v>5146</v>
       </c>
       <c r="J65" t="n">
-        <v>5146</v>
+        <v>825</v>
       </c>
       <c r="K65" t="n">
-        <v>5146</v>
+        <v>1</v>
       </c>
       <c r="L65" t="n">
-        <v>825</v>
+        <v>20123</v>
       </c>
       <c r="M65" t="n">
-        <v>1</v>
+        <v>1765</v>
       </c>
       <c r="N65" t="n">
-        <v>20123</v>
+        <v>-8472</v>
       </c>
       <c r="O65" t="n">
-        <v>1765</v>
+        <v>4875</v>
       </c>
       <c r="P65" t="n">
-        <v>-8472</v>
+        <v>53326</v>
       </c>
       <c r="Q65" t="n">
-        <v>4875</v>
+        <v>48</v>
       </c>
       <c r="R65" t="n">
-        <v>53326</v>
+        <v>598</v>
       </c>
       <c r="S65" t="n">
-        <v>48</v>
+        <v>1056</v>
       </c>
       <c r="T65" t="n">
-        <v>598</v>
+        <v>-1702</v>
       </c>
       <c r="U65" t="n">
-        <v>1056</v>
+        <v>0</v>
       </c>
       <c r="V65" t="n">
-        <v>-1702</v>
+        <v>0</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -12378,106 +12374,106 @@
         <v>0</v>
       </c>
       <c r="AB65" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="AC65" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="AD65" t="n">
-        <v>446</v>
+        <v>61</v>
       </c>
       <c r="AE65" t="n">
         <v>68</v>
       </c>
       <c r="AF65" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AG65" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH65" t="n">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="AI65" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="AJ65" t="n">
+        <v>35</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>37</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>38</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>31</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>34</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>97</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>30</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>16</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>382</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>29</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>24</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>5</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>134</v>
+      </c>
+      <c r="BF65" t="n">
         <v>57</v>
       </c>
-      <c r="AK65" t="n">
-        <v>48</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>35</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>37</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>38</v>
-      </c>
-      <c r="AO65" t="n">
-        <v>36</v>
-      </c>
-      <c r="AP65" t="n">
-        <v>31</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>34</v>
-      </c>
-      <c r="AR65" t="n">
-        <v>97</v>
-      </c>
-      <c r="AS65" t="n">
-        <v>30</v>
-      </c>
-      <c r="AT65" t="n">
-        <v>24</v>
-      </c>
-      <c r="AU65" t="n">
-        <v>21</v>
-      </c>
-      <c r="AV65" t="n">
-        <v>16</v>
-      </c>
-      <c r="AW65" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX65" t="n">
-        <v>382</v>
-      </c>
-      <c r="AY65" t="n">
-        <v>6</v>
-      </c>
-      <c r="AZ65" t="n">
-        <v>9</v>
-      </c>
-      <c r="BA65" t="n">
-        <v>12</v>
-      </c>
-      <c r="BB65" t="n">
-        <v>17</v>
-      </c>
-      <c r="BC65" t="n">
-        <v>29</v>
-      </c>
-      <c r="BD65" t="n">
-        <v>24</v>
-      </c>
-      <c r="BE65" t="n">
-        <v>9</v>
-      </c>
-      <c r="BF65" t="n">
-        <v>5</v>
-      </c>
       <c r="BG65" t="n">
-        <v>134</v>
+        <v>3</v>
       </c>
       <c r="BH65" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="BI65" t="n">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="66">
@@ -12487,103 +12483,103 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-204</v>
+        <v>-98</v>
       </c>
       <c r="C66" t="n">
-        <v>-129</v>
+        <v>-313717.984</v>
       </c>
       <c r="D66" t="n">
-        <v>-98</v>
+        <v>-59623</v>
       </c>
       <c r="E66" t="n">
-        <v>-313717.984</v>
+        <v>-81002</v>
       </c>
       <c r="F66" t="n">
-        <v>-59623</v>
+        <v>-70491</v>
       </c>
       <c r="G66" t="n">
-        <v>-81002</v>
+        <v>211315.008</v>
       </c>
       <c r="H66" t="n">
-        <v>-70491</v>
+        <v>-3060</v>
       </c>
       <c r="I66" t="n">
-        <v>211315.008</v>
+        <v>-3060</v>
       </c>
       <c r="J66" t="n">
-        <v>-3060</v>
+        <v>-2635</v>
       </c>
       <c r="K66" t="n">
-        <v>-3060</v>
+        <v>-2151</v>
       </c>
       <c r="L66" t="n">
-        <v>-2635</v>
+        <v>7846</v>
       </c>
       <c r="M66" t="n">
-        <v>-2151</v>
+        <v>-2570</v>
       </c>
       <c r="N66" t="n">
-        <v>7846</v>
+        <v>-5527</v>
       </c>
       <c r="O66" t="n">
-        <v>-2570</v>
+        <v>-8741</v>
       </c>
       <c r="P66" t="n">
-        <v>-5527</v>
+        <v>16838</v>
       </c>
       <c r="Q66" t="n">
-        <v>-8741</v>
+        <v>-379</v>
       </c>
       <c r="R66" t="n">
-        <v>16838</v>
+        <v>-53</v>
       </c>
       <c r="S66" t="n">
-        <v>-379</v>
+        <v>-54</v>
       </c>
       <c r="T66" t="n">
-        <v>-53</v>
+        <v>486</v>
       </c>
       <c r="U66" t="n">
-        <v>-54</v>
+        <v>-175</v>
       </c>
       <c r="V66" t="n">
-        <v>486</v>
+        <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>-175</v>
+        <v>0</v>
       </c>
       <c r="X66" t="n">
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="Y66" t="n">
-        <v>0</v>
+        <v>-264</v>
       </c>
       <c r="Z66" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AA66" t="n">
-        <v>-264</v>
+        <v>0</v>
       </c>
       <c r="AB66" t="n">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="AC66" t="n">
-        <v>0</v>
+        <v>-11</v>
       </c>
       <c r="AD66" t="n">
-        <v>174</v>
+        <v>-64</v>
       </c>
       <c r="AE66" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="AF66" t="n">
-        <v>-64</v>
+        <v>-60</v>
       </c>
       <c r="AG66" t="n">
-        <v>-13</v>
+        <v>0</v>
       </c>
       <c r="AH66" t="n">
-        <v>-60</v>
+        <v>0</v>
       </c>
       <c r="AI66" t="n">
         <v>0</v>
@@ -12664,7 +12660,7 @@
         <v>0</v>
       </c>
       <c r="BI66" t="n">
-        <v>0</v>
+        <v>-6457</v>
       </c>
     </row>
     <row r="67">
@@ -12674,184 +12670,184 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>10126</v>
+        <v>7987</v>
       </c>
       <c r="C67" t="n">
-        <v>9813</v>
+        <v>-21444</v>
       </c>
       <c r="D67" t="n">
-        <v>7987</v>
+        <v>10959</v>
       </c>
       <c r="E67" t="n">
-        <v>-21444</v>
+        <v>-34</v>
       </c>
       <c r="F67" t="n">
-        <v>10959</v>
+        <v>7556</v>
       </c>
       <c r="G67" t="n">
-        <v>-34</v>
+        <v>1353</v>
       </c>
       <c r="H67" t="n">
-        <v>7556</v>
+        <v>2617</v>
       </c>
       <c r="I67" t="n">
-        <v>1353</v>
+        <v>2617</v>
       </c>
       <c r="J67" t="n">
-        <v>2617</v>
+        <v>2440</v>
       </c>
       <c r="K67" t="n">
-        <v>2617</v>
+        <v>7774</v>
       </c>
       <c r="L67" t="n">
-        <v>2440</v>
+        <v>4590</v>
       </c>
       <c r="M67" t="n">
-        <v>7774</v>
+        <v>4957</v>
       </c>
       <c r="N67" t="n">
-        <v>4590</v>
+        <v>3691</v>
       </c>
       <c r="O67" t="n">
-        <v>4957</v>
+        <v>4975</v>
       </c>
       <c r="P67" t="n">
-        <v>3691</v>
+        <v>6977</v>
       </c>
       <c r="Q67" t="n">
-        <v>4975</v>
+        <v>12312</v>
       </c>
       <c r="R67" t="n">
-        <v>6977</v>
+        <v>13114</v>
       </c>
       <c r="S67" t="n">
-        <v>12312</v>
+        <v>5178</v>
       </c>
       <c r="T67" t="n">
-        <v>13114</v>
+        <v>-30604</v>
       </c>
       <c r="U67" t="n">
-        <v>5178</v>
+        <v>8792</v>
       </c>
       <c r="V67" t="n">
-        <v>-30604</v>
+        <v>4776</v>
       </c>
       <c r="W67" t="n">
-        <v>8792</v>
+        <v>12343</v>
       </c>
       <c r="X67" t="n">
-        <v>4776</v>
+        <v>-25911</v>
       </c>
       <c r="Y67" t="n">
-        <v>12343</v>
+        <v>10359</v>
       </c>
       <c r="Z67" t="n">
-        <v>-25911</v>
+        <v>13144</v>
       </c>
       <c r="AA67" t="n">
-        <v>10359</v>
+        <v>13652</v>
       </c>
       <c r="AB67" t="n">
-        <v>13144</v>
+        <v>16262</v>
       </c>
       <c r="AC67" t="n">
-        <v>13652</v>
+        <v>12875</v>
       </c>
       <c r="AD67" t="n">
-        <v>16262</v>
+        <v>11572</v>
       </c>
       <c r="AE67" t="n">
-        <v>12875</v>
+        <v>15033</v>
       </c>
       <c r="AF67" t="n">
-        <v>11572</v>
+        <v>13696</v>
       </c>
       <c r="AG67" t="n">
-        <v>15033</v>
+        <v>7932</v>
       </c>
       <c r="AH67" t="n">
-        <v>13696</v>
+        <v>10146</v>
       </c>
       <c r="AI67" t="n">
-        <v>7932</v>
+        <v>10550</v>
       </c>
       <c r="AJ67" t="n">
-        <v>10146</v>
+        <v>18090</v>
       </c>
       <c r="AK67" t="n">
-        <v>10550</v>
+        <v>11924</v>
       </c>
       <c r="AL67" t="n">
-        <v>18090</v>
+        <v>10172</v>
       </c>
       <c r="AM67" t="n">
-        <v>11924</v>
+        <v>12605</v>
       </c>
       <c r="AN67" t="n">
-        <v>10172</v>
+        <v>10673</v>
       </c>
       <c r="AO67" t="n">
-        <v>12605</v>
+        <v>11573</v>
       </c>
       <c r="AP67" t="n">
-        <v>10673</v>
+        <v>7186</v>
       </c>
       <c r="AQ67" t="n">
-        <v>11573</v>
+        <v>14031</v>
       </c>
       <c r="AR67" t="n">
-        <v>7186</v>
+        <v>11021</v>
       </c>
       <c r="AS67" t="n">
-        <v>14031</v>
+        <v>13275</v>
       </c>
       <c r="AT67" t="n">
-        <v>11021</v>
+        <v>10388</v>
       </c>
       <c r="AU67" t="n">
-        <v>13275</v>
+        <v>10505</v>
       </c>
       <c r="AV67" t="n">
-        <v>10388</v>
+        <v>4287</v>
       </c>
       <c r="AW67" t="n">
-        <v>10505</v>
+        <v>6241</v>
       </c>
       <c r="AX67" t="n">
-        <v>4287</v>
+        <v>3665</v>
       </c>
       <c r="AY67" t="n">
-        <v>6241</v>
+        <v>3165</v>
       </c>
       <c r="AZ67" t="n">
-        <v>3665</v>
+        <v>5427</v>
       </c>
       <c r="BA67" t="n">
-        <v>3165</v>
+        <v>12100</v>
       </c>
       <c r="BB67" t="n">
-        <v>5427</v>
+        <v>40586</v>
       </c>
       <c r="BC67" t="n">
-        <v>12100</v>
+        <v>6513</v>
       </c>
       <c r="BD67" t="n">
-        <v>40586</v>
+        <v>5049</v>
       </c>
       <c r="BE67" t="n">
-        <v>6513</v>
+        <v>7118</v>
       </c>
       <c r="BF67" t="n">
-        <v>5049</v>
+        <v>14471</v>
       </c>
       <c r="BG67" t="n">
-        <v>7118</v>
+        <v>-10893</v>
       </c>
       <c r="BH67" t="n">
-        <v>14471</v>
+        <v>3995</v>
       </c>
       <c r="BI67" t="n">
-        <v>-10893</v>
+        <v>-55825</v>
       </c>
     </row>
     <row r="68">
@@ -12861,184 +12857,184 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>372</v>
+        <v>227</v>
       </c>
       <c r="C68" t="n">
-        <v>-3245</v>
+        <v>4471</v>
       </c>
       <c r="D68" t="n">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="E68" t="n">
-        <v>4471</v>
+        <v>222</v>
       </c>
       <c r="F68" t="n">
-        <v>200</v>
+        <v>160</v>
       </c>
       <c r="G68" t="n">
-        <v>222</v>
+        <v>96873</v>
       </c>
       <c r="H68" t="n">
-        <v>160</v>
+        <v>22899</v>
       </c>
       <c r="I68" t="n">
-        <v>96873</v>
+        <v>22899</v>
       </c>
       <c r="J68" t="n">
-        <v>22899</v>
+        <v>29800</v>
       </c>
       <c r="K68" t="n">
-        <v>22899</v>
+        <v>30420</v>
       </c>
       <c r="L68" t="n">
-        <v>29800</v>
+        <v>25999</v>
       </c>
       <c r="M68" t="n">
-        <v>30420</v>
+        <v>32324</v>
       </c>
       <c r="N68" t="n">
-        <v>25999</v>
+        <v>35101</v>
       </c>
       <c r="O68" t="n">
-        <v>32324</v>
+        <v>31828</v>
       </c>
       <c r="P68" t="n">
-        <v>35101</v>
+        <v>25902</v>
       </c>
       <c r="Q68" t="n">
-        <v>31828</v>
+        <v>27</v>
       </c>
       <c r="R68" t="n">
-        <v>25902</v>
+        <v>30</v>
       </c>
       <c r="S68" t="n">
-        <v>27</v>
+        <v>1706</v>
       </c>
       <c r="T68" t="n">
-        <v>30</v>
+        <v>-1763</v>
       </c>
       <c r="U68" t="n">
-        <v>1706</v>
+        <v>127</v>
       </c>
       <c r="V68" t="n">
-        <v>-1763</v>
+        <v>184</v>
       </c>
       <c r="W68" t="n">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="X68" t="n">
-        <v>184</v>
+        <v>-417</v>
       </c>
       <c r="Y68" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Z68" t="n">
-        <v>-417</v>
+        <v>421</v>
       </c>
       <c r="AA68" t="n">
+        <v>323</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>-139</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>158</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>62</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>124</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>197</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>161</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>-330</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>232</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>228</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>188</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>104</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>92</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>58</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>63</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>66</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>38</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>-139</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>93</v>
+      </c>
+      <c r="AX68" t="n">
         <v>103</v>
       </c>
-      <c r="AB68" t="n">
-        <v>421</v>
-      </c>
-      <c r="AC68" t="n">
-        <v>323</v>
-      </c>
-      <c r="AD68" t="n">
-        <v>-139</v>
-      </c>
-      <c r="AE68" t="n">
-        <v>158</v>
-      </c>
-      <c r="AF68" t="n">
-        <v>62</v>
-      </c>
-      <c r="AG68" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH68" t="n">
-        <v>71</v>
-      </c>
-      <c r="AI68" t="n">
-        <v>124</v>
-      </c>
-      <c r="AJ68" t="n">
-        <v>197</v>
-      </c>
-      <c r="AK68" t="n">
-        <v>161</v>
-      </c>
-      <c r="AL68" t="n">
-        <v>-330</v>
-      </c>
-      <c r="AM68" t="n">
-        <v>299</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>232</v>
-      </c>
-      <c r="AO68" t="n">
-        <v>228</v>
-      </c>
-      <c r="AP68" t="n">
-        <v>188</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>169</v>
-      </c>
-      <c r="AR68" t="n">
-        <v>104</v>
-      </c>
-      <c r="AS68" t="n">
-        <v>92</v>
-      </c>
-      <c r="AT68" t="n">
-        <v>58</v>
-      </c>
-      <c r="AU68" t="n">
-        <v>63</v>
-      </c>
-      <c r="AV68" t="n">
-        <v>66</v>
-      </c>
-      <c r="AW68" t="n">
-        <v>38</v>
-      </c>
-      <c r="AX68" t="n">
-        <v>-139</v>
-      </c>
       <c r="AY68" t="n">
-        <v>93</v>
+        <v>1014</v>
       </c>
       <c r="AZ68" t="n">
-        <v>103</v>
+        <v>1655</v>
       </c>
       <c r="BA68" t="n">
-        <v>1014</v>
+        <v>1831</v>
       </c>
       <c r="BB68" t="n">
-        <v>1655</v>
+        <v>2116</v>
       </c>
       <c r="BC68" t="n">
-        <v>1831</v>
+        <v>2164</v>
       </c>
       <c r="BD68" t="n">
-        <v>2116</v>
+        <v>2195</v>
       </c>
       <c r="BE68" t="n">
-        <v>2164</v>
+        <v>2005</v>
       </c>
       <c r="BF68" t="n">
-        <v>2195</v>
+        <v>2070</v>
       </c>
       <c r="BG68" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="BH68" t="n">
-        <v>2070</v>
+        <v>1502</v>
       </c>
       <c r="BI68" t="n">
-        <v>1700</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="69">
@@ -13048,184 +13044,184 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>372</v>
+        <v>235</v>
       </c>
       <c r="C69" t="n">
-        <v>222</v>
+        <v>1332</v>
       </c>
       <c r="D69" t="n">
-        <v>235</v>
+        <v>280</v>
       </c>
       <c r="E69" t="n">
-        <v>1332</v>
+        <v>292</v>
       </c>
       <c r="F69" t="n">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="G69" t="n">
-        <v>292</v>
+        <v>324836</v>
       </c>
       <c r="H69" t="n">
-        <v>248</v>
+        <v>72610</v>
       </c>
       <c r="I69" t="n">
-        <v>324836</v>
+        <v>72610</v>
       </c>
       <c r="J69" t="n">
-        <v>72610</v>
+        <v>85040</v>
       </c>
       <c r="K69" t="n">
-        <v>72610</v>
+        <v>112731</v>
       </c>
       <c r="L69" t="n">
-        <v>85040</v>
+        <v>101626.008</v>
       </c>
       <c r="M69" t="n">
-        <v>112731</v>
+        <v>94401</v>
       </c>
       <c r="N69" t="n">
-        <v>101626.008</v>
+        <v>104046</v>
       </c>
       <c r="O69" t="n">
-        <v>94401</v>
+        <v>59104</v>
       </c>
       <c r="P69" t="n">
-        <v>104046</v>
+        <v>53796.008</v>
       </c>
       <c r="Q69" t="n">
-        <v>59104</v>
+        <v>27</v>
       </c>
       <c r="R69" t="n">
-        <v>53796.008</v>
+        <v>30</v>
       </c>
       <c r="S69" t="n">
-        <v>27</v>
+        <v>1706</v>
       </c>
       <c r="T69" t="n">
-        <v>30</v>
+        <v>-1763</v>
       </c>
       <c r="U69" t="n">
-        <v>1706</v>
+        <v>127</v>
       </c>
       <c r="V69" t="n">
-        <v>-1763</v>
+        <v>184</v>
       </c>
       <c r="W69" t="n">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="X69" t="n">
-        <v>184</v>
+        <v>-417</v>
       </c>
       <c r="Y69" t="n">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Z69" t="n">
-        <v>-417</v>
+        <v>421</v>
       </c>
       <c r="AA69" t="n">
+        <v>323</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>-139</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>158</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>62</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>50</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>71</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>124</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>197</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>161</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>-330</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>299</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>232</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>228</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>188</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>169</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>104</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>92</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>58</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>63</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>66</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>38</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>-139</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>93</v>
+      </c>
+      <c r="AX69" t="n">
         <v>103</v>
       </c>
-      <c r="AB69" t="n">
-        <v>421</v>
-      </c>
-      <c r="AC69" t="n">
-        <v>323</v>
-      </c>
-      <c r="AD69" t="n">
-        <v>-139</v>
-      </c>
-      <c r="AE69" t="n">
-        <v>158</v>
-      </c>
-      <c r="AF69" t="n">
-        <v>62</v>
-      </c>
-      <c r="AG69" t="n">
-        <v>50</v>
-      </c>
-      <c r="AH69" t="n">
-        <v>71</v>
-      </c>
-      <c r="AI69" t="n">
-        <v>124</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>197</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>161</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>-330</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>299</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>232</v>
-      </c>
-      <c r="AO69" t="n">
-        <v>228</v>
-      </c>
-      <c r="AP69" t="n">
-        <v>188</v>
-      </c>
-      <c r="AQ69" t="n">
-        <v>169</v>
-      </c>
-      <c r="AR69" t="n">
-        <v>104</v>
-      </c>
-      <c r="AS69" t="n">
-        <v>92</v>
-      </c>
-      <c r="AT69" t="n">
-        <v>58</v>
-      </c>
-      <c r="AU69" t="n">
-        <v>63</v>
-      </c>
-      <c r="AV69" t="n">
-        <v>66</v>
-      </c>
-      <c r="AW69" t="n">
-        <v>38</v>
-      </c>
-      <c r="AX69" t="n">
-        <v>-139</v>
-      </c>
       <c r="AY69" t="n">
-        <v>93</v>
+        <v>1014</v>
       </c>
       <c r="AZ69" t="n">
-        <v>103</v>
+        <v>1655</v>
       </c>
       <c r="BA69" t="n">
-        <v>1014</v>
+        <v>1831</v>
       </c>
       <c r="BB69" t="n">
-        <v>1655</v>
+        <v>2116</v>
       </c>
       <c r="BC69" t="n">
-        <v>1831</v>
+        <v>2164</v>
       </c>
       <c r="BD69" t="n">
-        <v>2116</v>
+        <v>2195</v>
       </c>
       <c r="BE69" t="n">
-        <v>2164</v>
+        <v>2005</v>
       </c>
       <c r="BF69" t="n">
-        <v>2195</v>
+        <v>2070</v>
       </c>
       <c r="BG69" t="n">
-        <v>2005</v>
+        <v>1700</v>
       </c>
       <c r="BH69" t="n">
-        <v>2070</v>
+        <v>1502</v>
       </c>
       <c r="BI69" t="n">
-        <v>1700</v>
+        <v>1340</v>
       </c>
     </row>
     <row r="70">
@@ -13235,55 +13231,55 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="C70" t="n">
-        <v>-3467</v>
+        <v>3139</v>
       </c>
       <c r="D70" t="n">
-        <v>-8</v>
+        <v>-80</v>
       </c>
       <c r="E70" t="n">
-        <v>3139</v>
+        <v>-70</v>
       </c>
       <c r="F70" t="n">
-        <v>-80</v>
+        <v>-88</v>
       </c>
       <c r="G70" t="n">
-        <v>-70</v>
+        <v>-227962.992</v>
       </c>
       <c r="H70" t="n">
-        <v>-88</v>
+        <v>-49711</v>
       </c>
       <c r="I70" t="n">
-        <v>-227962.992</v>
+        <v>-49711</v>
       </c>
       <c r="J70" t="n">
-        <v>-49711</v>
+        <v>-55240</v>
       </c>
       <c r="K70" t="n">
-        <v>-49711</v>
+        <v>-82311</v>
       </c>
       <c r="L70" t="n">
-        <v>-55240</v>
+        <v>-75626.992</v>
       </c>
       <c r="M70" t="n">
-        <v>-82311</v>
+        <v>-62077</v>
       </c>
       <c r="N70" t="n">
-        <v>-75626.992</v>
+        <v>-68945</v>
       </c>
       <c r="O70" t="n">
-        <v>-62077</v>
+        <v>-27276</v>
       </c>
       <c r="P70" t="n">
-        <v>-68945</v>
+        <v>-27894</v>
       </c>
       <c r="Q70" t="n">
-        <v>-27276</v>
+        <v>0</v>
       </c>
       <c r="R70" t="n">
-        <v>-27894</v>
+        <v>0</v>
       </c>
       <c r="S70" t="n">
         <v>0</v>
@@ -13436,12 +13432,8 @@
       <c r="F71" t="n">
         <v>0</v>
       </c>
-      <c r="G71" t="n">
-        <v>0</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
+      <c r="G71" t="inlineStr"/>
+      <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
@@ -13517,12 +13509,8 @@
       <c r="F72" t="n">
         <v>0</v>
       </c>
-      <c r="G72" t="n">
-        <v>0</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
+      <c r="G72" t="inlineStr"/>
+      <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
@@ -13598,12 +13586,8 @@
       <c r="F73" t="n">
         <v>0</v>
       </c>
-      <c r="G73" t="n">
-        <v>0</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
+      <c r="G73" t="inlineStr"/>
+      <c r="H73" t="inlineStr"/>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
@@ -13665,184 +13649,184 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>11788</v>
+        <v>7666</v>
       </c>
       <c r="C74" t="n">
-        <v>6011</v>
+        <v>35995</v>
       </c>
       <c r="D74" t="n">
-        <v>7666</v>
+        <v>35018</v>
       </c>
       <c r="E74" t="n">
-        <v>35995</v>
+        <v>-905</v>
       </c>
       <c r="F74" t="n">
-        <v>35018</v>
+        <v>16013</v>
       </c>
       <c r="G74" t="n">
-        <v>-905</v>
+        <v>4364</v>
       </c>
       <c r="H74" t="n">
-        <v>16013</v>
+        <v>12707</v>
       </c>
       <c r="I74" t="n">
-        <v>4364</v>
+        <v>12707</v>
       </c>
       <c r="J74" t="n">
-        <v>12707</v>
+        <v>16008</v>
       </c>
       <c r="K74" t="n">
-        <v>12707</v>
+        <v>19666</v>
       </c>
       <c r="L74" t="n">
-        <v>16008</v>
+        <v>15508</v>
       </c>
       <c r="M74" t="n">
-        <v>19666</v>
+        <v>21335</v>
       </c>
       <c r="N74" t="n">
-        <v>15508</v>
+        <v>7877</v>
       </c>
       <c r="O74" t="n">
-        <v>21335</v>
+        <v>16555</v>
       </c>
       <c r="P74" t="n">
-        <v>7877</v>
+        <v>27855</v>
       </c>
       <c r="Q74" t="n">
-        <v>16555</v>
+        <v>11290</v>
       </c>
       <c r="R74" t="n">
-        <v>27855</v>
+        <v>12779</v>
       </c>
       <c r="S74" t="n">
-        <v>11290</v>
+        <v>7268</v>
       </c>
       <c r="T74" t="n">
-        <v>12779</v>
+        <v>-31337</v>
       </c>
       <c r="U74" t="n">
-        <v>7268</v>
+        <v>8174</v>
       </c>
       <c r="V74" t="n">
-        <v>-31337</v>
+        <v>3947</v>
       </c>
       <c r="W74" t="n">
-        <v>8174</v>
+        <v>11784</v>
       </c>
       <c r="X74" t="n">
-        <v>3947</v>
+        <v>-23905</v>
       </c>
       <c r="Y74" t="n">
-        <v>11784</v>
+        <v>9743</v>
       </c>
       <c r="Z74" t="n">
-        <v>-23905</v>
+        <v>12778</v>
       </c>
       <c r="AA74" t="n">
-        <v>9743</v>
+        <v>13295</v>
       </c>
       <c r="AB74" t="n">
-        <v>12778</v>
+        <v>15769</v>
       </c>
       <c r="AC74" t="n">
-        <v>13295</v>
+        <v>12432</v>
       </c>
       <c r="AD74" t="n">
-        <v>15769</v>
+        <v>10875</v>
       </c>
       <c r="AE74" t="n">
-        <v>12432</v>
+        <v>14430</v>
       </c>
       <c r="AF74" t="n">
-        <v>10875</v>
+        <v>12998</v>
       </c>
       <c r="AG74" t="n">
-        <v>14430</v>
+        <v>7341</v>
       </c>
       <c r="AH74" t="n">
-        <v>12998</v>
+        <v>9524</v>
       </c>
       <c r="AI74" t="n">
-        <v>7341</v>
+        <v>6506</v>
       </c>
       <c r="AJ74" t="n">
-        <v>9524</v>
+        <v>17250</v>
       </c>
       <c r="AK74" t="n">
-        <v>6506</v>
+        <v>11368</v>
       </c>
       <c r="AL74" t="n">
-        <v>17250</v>
+        <v>9557</v>
       </c>
       <c r="AM74" t="n">
-        <v>11368</v>
+        <v>12050</v>
       </c>
       <c r="AN74" t="n">
-        <v>9557</v>
+        <v>10037</v>
       </c>
       <c r="AO74" t="n">
-        <v>12050</v>
+        <v>10943</v>
       </c>
       <c r="AP74" t="n">
-        <v>10037</v>
+        <v>6457</v>
       </c>
       <c r="AQ74" t="n">
-        <v>10943</v>
+        <v>13287</v>
       </c>
       <c r="AR74" t="n">
-        <v>6457</v>
+        <v>10193</v>
       </c>
       <c r="AS74" t="n">
-        <v>13287</v>
+        <v>11993</v>
       </c>
       <c r="AT74" t="n">
-        <v>10193</v>
+        <v>9339</v>
       </c>
       <c r="AU74" t="n">
-        <v>11993</v>
+        <v>9663</v>
       </c>
       <c r="AV74" t="n">
-        <v>9339</v>
+        <v>2958</v>
       </c>
       <c r="AW74" t="n">
-        <v>9663</v>
+        <v>5556</v>
       </c>
       <c r="AX74" t="n">
-        <v>2958</v>
+        <v>2903</v>
       </c>
       <c r="AY74" t="n">
-        <v>5556</v>
+        <v>3157</v>
       </c>
       <c r="AZ74" t="n">
-        <v>2903</v>
+        <v>6017</v>
       </c>
       <c r="BA74" t="n">
-        <v>3157</v>
+        <v>12864</v>
       </c>
       <c r="BB74" t="n">
-        <v>6017</v>
+        <v>41667</v>
       </c>
       <c r="BC74" t="n">
-        <v>12864</v>
+        <v>7412</v>
       </c>
       <c r="BD74" t="n">
-        <v>41667</v>
+        <v>4957</v>
       </c>
       <c r="BE74" t="n">
-        <v>7412</v>
+        <v>8011</v>
       </c>
       <c r="BF74" t="n">
-        <v>4957</v>
+        <v>14180</v>
       </c>
       <c r="BG74" t="n">
-        <v>8011</v>
+        <v>-10136</v>
       </c>
       <c r="BH74" t="n">
-        <v>14180</v>
+        <v>4742</v>
       </c>
       <c r="BI74" t="n">
-        <v>-10136</v>
+        <v>-61478</v>
       </c>
     </row>
     <row r="75">
@@ -13855,52 +13839,52 @@
         <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0</v>
+        <v>-14503</v>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>-9459</v>
       </c>
       <c r="E75" t="n">
-        <v>-14503</v>
+        <v>3486</v>
       </c>
       <c r="F75" t="n">
-        <v>-9459</v>
+        <v>-3854</v>
       </c>
       <c r="G75" t="n">
-        <v>3486</v>
+        <v>9827</v>
       </c>
       <c r="H75" t="n">
-        <v>-3854</v>
+        <v>-4458</v>
       </c>
       <c r="I75" t="n">
-        <v>9827</v>
+        <v>-4458</v>
       </c>
       <c r="J75" t="n">
-        <v>-4458</v>
+        <v>-4334</v>
       </c>
       <c r="K75" t="n">
-        <v>-4458</v>
+        <v>-3870</v>
       </c>
       <c r="L75" t="n">
-        <v>-4334</v>
+        <v>12662</v>
       </c>
       <c r="M75" t="n">
-        <v>-3870</v>
+        <v>-7615</v>
       </c>
       <c r="N75" t="n">
-        <v>12662</v>
+        <v>-1272</v>
       </c>
       <c r="O75" t="n">
-        <v>-7615</v>
+        <v>-4847</v>
       </c>
       <c r="P75" t="n">
-        <v>-1272</v>
+        <v>13734</v>
       </c>
       <c r="Q75" t="n">
-        <v>-4847</v>
+        <v>0</v>
       </c>
       <c r="R75" t="n">
-        <v>13734</v>
+        <v>0</v>
       </c>
       <c r="S75" t="n">
         <v>0</v>
@@ -13927,22 +13911,22 @@
         <v>0</v>
       </c>
       <c r="AA75" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB75" t="n">
-        <v>0</v>
+        <v>-52</v>
       </c>
       <c r="AC75" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AD75" t="n">
-        <v>-52</v>
+        <v>48</v>
       </c>
       <c r="AE75" t="n">
         <v>0</v>
       </c>
       <c r="AF75" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AG75" t="n">
         <v>0</v>
@@ -13954,13 +13938,13 @@
         <v>0</v>
       </c>
       <c r="AJ75" t="n">
-        <v>0</v>
+        <v>2915</v>
       </c>
       <c r="AK75" t="n">
         <v>0</v>
       </c>
       <c r="AL75" t="n">
-        <v>2915</v>
+        <v>0</v>
       </c>
       <c r="AM75" t="n">
         <v>0</v>
@@ -14002,34 +13986,34 @@
         <v>0</v>
       </c>
       <c r="AZ75" t="n">
-        <v>0</v>
+        <v>-195</v>
       </c>
       <c r="BA75" t="n">
-        <v>0</v>
+        <v>-240</v>
       </c>
       <c r="BB75" t="n">
-        <v>-195</v>
+        <v>-309</v>
       </c>
       <c r="BC75" t="n">
-        <v>-240</v>
+        <v>-825</v>
       </c>
       <c r="BD75" t="n">
-        <v>-309</v>
+        <v>-7</v>
       </c>
       <c r="BE75" t="n">
-        <v>-825</v>
+        <v>-39</v>
       </c>
       <c r="BF75" t="n">
-        <v>-7</v>
+        <v>-258</v>
       </c>
       <c r="BG75" t="n">
-        <v>-39</v>
+        <v>-153</v>
       </c>
       <c r="BH75" t="n">
-        <v>-258</v>
+        <v>-84</v>
       </c>
       <c r="BI75" t="n">
-        <v>-153</v>
+        <v>-146</v>
       </c>
     </row>
     <row r="76">
@@ -14138,16 +14122,16 @@
         <v>0</v>
       </c>
       <c r="AI76" t="n">
-        <v>0</v>
+        <v>3023</v>
       </c>
       <c r="AJ76" t="n">
-        <v>0</v>
+        <v>-3023</v>
       </c>
       <c r="AK76" t="n">
-        <v>3023</v>
+        <v>0</v>
       </c>
       <c r="AL76" t="n">
-        <v>-3023</v>
+        <v>0</v>
       </c>
       <c r="AM76" t="n">
         <v>0</v>
@@ -14216,7 +14200,7 @@
         <v>0</v>
       </c>
       <c r="BI76" t="n">
-        <v>0</v>
+        <v>8337</v>
       </c>
     </row>
     <row r="77">
@@ -14226,26 +14210,22 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-417</v>
+        <v>-297</v>
       </c>
       <c r="C77" t="n">
-        <v>-302</v>
+        <v>-2731</v>
       </c>
       <c r="D77" t="n">
-        <v>-297</v>
+        <v>-984</v>
       </c>
       <c r="E77" t="n">
-        <v>-2731</v>
+        <v>-1153</v>
       </c>
       <c r="F77" t="n">
-        <v>-984</v>
-      </c>
-      <c r="G77" t="n">
-        <v>-1153</v>
-      </c>
-      <c r="H77" t="n">
         <v>-909</v>
       </c>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
@@ -14310,23 +14290,19 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>3068</v>
+        <v>-3068</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
       </c>
       <c r="E78" t="n">
-        <v>-3068</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
         <v>0</v>
       </c>
-      <c r="G78" t="n">
-        <v>0</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
+      <c r="G78" t="inlineStr"/>
+      <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
@@ -14389,8 +14365,12 @@
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="D79" t="n">
+        <v>0</v>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
@@ -14424,12 +14404,8 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
-      <c r="Q79" t="n">
-        <v>0</v>
-      </c>
-      <c r="R79" t="n">
-        <v>0</v>
-      </c>
+      <c r="Q79" t="inlineStr"/>
+      <c r="R79" t="inlineStr"/>
       <c r="S79" t="inlineStr"/>
       <c r="T79" t="inlineStr"/>
       <c r="U79" t="inlineStr"/>
@@ -14481,184 +14457,184 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>11371</v>
+        <v>7369</v>
       </c>
       <c r="C80" t="n">
-        <v>8777</v>
+        <v>13104</v>
       </c>
       <c r="D80" t="n">
-        <v>7369</v>
+        <v>24575</v>
       </c>
       <c r="E80" t="n">
-        <v>13104</v>
+        <v>1428</v>
       </c>
       <c r="F80" t="n">
-        <v>24575</v>
+        <v>11250</v>
       </c>
       <c r="G80" t="n">
-        <v>1428</v>
+        <v>5991</v>
       </c>
       <c r="H80" t="n">
-        <v>11250</v>
+        <v>8249</v>
       </c>
       <c r="I80" t="n">
-        <v>5991</v>
+        <v>8249</v>
       </c>
       <c r="J80" t="n">
-        <v>8249</v>
+        <v>11674</v>
       </c>
       <c r="K80" t="n">
-        <v>8249</v>
+        <v>15796</v>
       </c>
       <c r="L80" t="n">
-        <v>11674</v>
+        <v>12116</v>
       </c>
       <c r="M80" t="n">
-        <v>15796</v>
+        <v>13720</v>
       </c>
       <c r="N80" t="n">
-        <v>12116</v>
+        <v>6605</v>
       </c>
       <c r="O80" t="n">
-        <v>13720</v>
+        <v>11708</v>
       </c>
       <c r="P80" t="n">
-        <v>6605</v>
+        <v>20373</v>
       </c>
       <c r="Q80" t="n">
-        <v>11708</v>
+        <v>11290</v>
       </c>
       <c r="R80" t="n">
-        <v>20373</v>
+        <v>12779</v>
       </c>
       <c r="S80" t="n">
-        <v>11290</v>
+        <v>7028</v>
       </c>
       <c r="T80" t="n">
-        <v>12779</v>
+        <v>-31097</v>
       </c>
       <c r="U80" t="n">
-        <v>7028</v>
+        <v>8174</v>
       </c>
       <c r="V80" t="n">
-        <v>-31097</v>
+        <v>3947</v>
       </c>
       <c r="W80" t="n">
-        <v>8174</v>
+        <v>11784</v>
       </c>
       <c r="X80" t="n">
-        <v>3947</v>
+        <v>-23905</v>
       </c>
       <c r="Y80" t="n">
-        <v>11784</v>
+        <v>9743</v>
       </c>
       <c r="Z80" t="n">
-        <v>-23905</v>
+        <v>12778</v>
       </c>
       <c r="AA80" t="n">
-        <v>9743</v>
+        <v>13299</v>
       </c>
       <c r="AB80" t="n">
-        <v>12778</v>
+        <v>15717</v>
       </c>
       <c r="AC80" t="n">
-        <v>13299</v>
+        <v>12432</v>
       </c>
       <c r="AD80" t="n">
-        <v>15717</v>
+        <v>10923</v>
       </c>
       <c r="AE80" t="n">
-        <v>12432</v>
+        <v>14430</v>
       </c>
       <c r="AF80" t="n">
-        <v>10923</v>
+        <v>12998</v>
       </c>
       <c r="AG80" t="n">
-        <v>14430</v>
+        <v>7341</v>
       </c>
       <c r="AH80" t="n">
-        <v>12998</v>
+        <v>9524</v>
       </c>
       <c r="AI80" t="n">
-        <v>7341</v>
+        <v>9529</v>
       </c>
       <c r="AJ80" t="n">
-        <v>9524</v>
+        <v>17142</v>
       </c>
       <c r="AK80" t="n">
-        <v>9529</v>
+        <v>11368</v>
       </c>
       <c r="AL80" t="n">
-        <v>17142</v>
+        <v>9557</v>
       </c>
       <c r="AM80" t="n">
-        <v>11368</v>
+        <v>12050</v>
       </c>
       <c r="AN80" t="n">
-        <v>9557</v>
+        <v>10037</v>
       </c>
       <c r="AO80" t="n">
-        <v>12050</v>
+        <v>10943</v>
       </c>
       <c r="AP80" t="n">
-        <v>10037</v>
+        <v>6457</v>
       </c>
       <c r="AQ80" t="n">
-        <v>10943</v>
+        <v>13287</v>
       </c>
       <c r="AR80" t="n">
-        <v>6457</v>
+        <v>10193</v>
       </c>
       <c r="AS80" t="n">
-        <v>13287</v>
+        <v>11993</v>
       </c>
       <c r="AT80" t="n">
-        <v>10193</v>
+        <v>9339</v>
       </c>
       <c r="AU80" t="n">
-        <v>11993</v>
+        <v>9663</v>
       </c>
       <c r="AV80" t="n">
-        <v>9339</v>
+        <v>2958</v>
       </c>
       <c r="AW80" t="n">
-        <v>9663</v>
+        <v>5556</v>
       </c>
       <c r="AX80" t="n">
-        <v>2958</v>
+        <v>2903</v>
       </c>
       <c r="AY80" t="n">
-        <v>5556</v>
+        <v>3157</v>
       </c>
       <c r="AZ80" t="n">
-        <v>2903</v>
+        <v>5822</v>
       </c>
       <c r="BA80" t="n">
-        <v>3157</v>
+        <v>12624</v>
       </c>
       <c r="BB80" t="n">
-        <v>5822</v>
+        <v>41358</v>
       </c>
       <c r="BC80" t="n">
-        <v>12624</v>
+        <v>6587</v>
       </c>
       <c r="BD80" t="n">
-        <v>41358</v>
+        <v>4950</v>
       </c>
       <c r="BE80" t="n">
-        <v>6587</v>
+        <v>7972</v>
       </c>
       <c r="BF80" t="n">
-        <v>4950</v>
+        <v>13922</v>
       </c>
       <c r="BG80" t="n">
-        <v>7972</v>
+        <v>-10289</v>
       </c>
       <c r="BH80" t="n">
-        <v>13922</v>
+        <v>4658</v>
       </c>
       <c r="BI80" t="n">
-        <v>-10289</v>
+        <v>-53287</v>
       </c>
     </row>
   </sheetData>
